--- a/high_confidence_for_annotation_latex_fixed.xlsx
+++ b/high_confidence_for_annotation_latex_fixed.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F9CF7-8DD2-7246-BFFB-64EB6A86CF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="833">
   <si>
     <t>ID_int</t>
   </si>
@@ -2510,13 +2519,16 @@
   </si>
   <si>
     <t>CRYSTAL_COLLIMATION_OF_HEAVY-ION_BEAMS#U2217.pdf</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2579,13 +2591,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2623,7 +2643,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2657,6 +2677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2691,9 +2712,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2866,19 +2888,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B350"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2902,7 +2926,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>832</v>
+      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -2928,7 +2955,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>832</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2954,7 +2984,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>832</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2980,7 +3013,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>832</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3042,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>832</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -3032,7 +3071,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>832</v>
+      </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -3058,7 +3100,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>832</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -3084,7 +3129,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>832</v>
+      </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3158,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>832</v>
+      </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3187,10 @@
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>832</v>
+      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -3162,7 +3216,10 @@
         <v>731</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>832</v>
+      </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -3188,7 +3245,10 @@
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>832</v>
+      </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3274,10 @@
         <v>733</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>832</v>
+      </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -3240,7 +3303,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>832</v>
+      </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -3266,7 +3332,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>832</v>
+      </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -3292,7 +3361,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>832</v>
+      </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -3318,7 +3390,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>832</v>
+      </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -3344,7 +3419,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>832</v>
+      </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -3370,7 +3448,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>832</v>
+      </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -3396,7 +3477,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>832</v>
+      </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -3422,7 +3506,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>832</v>
+      </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3535,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>832</v>
+      </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -3474,7 +3564,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>832</v>
+      </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -3500,7 +3593,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>832</v>
+      </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -3526,7 +3622,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>832</v>
+      </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -3552,7 +3651,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>832</v>
+      </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +3680,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>832</v>
+      </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -3604,7 +3709,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>832</v>
+      </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -3630,7 +3738,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>832</v>
+      </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -3656,7 +3767,10 @@
         <v>735</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>832</v>
+      </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -3682,7 +3796,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>832</v>
+      </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -3708,7 +3825,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>832</v>
+      </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
@@ -3734,7 +3854,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>832</v>
+      </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -3760,7 +3883,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>832</v>
+      </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
@@ -3786,7 +3912,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>832</v>
+      </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -3812,7 +3941,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>832</v>
+      </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
@@ -3838,7 +3970,10 @@
         <v>736</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>832</v>
+      </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -3864,7 +3999,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>832</v>
+      </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
@@ -3890,7 +4028,10 @@
         <v>737</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>832</v>
+      </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
@@ -3916,7 +4057,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>832</v>
+      </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -3942,7 +4086,10 @@
         <v>738</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>832</v>
+      </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
@@ -3968,7 +4115,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>832</v>
+      </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
@@ -3994,7 +4144,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>832</v>
+      </c>
       <c r="B44" t="s">
         <v>51</v>
       </c>
@@ -4020,7 +4173,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>832</v>
+      </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -4046,7 +4202,10 @@
         <v>739</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>832</v>
+      </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
@@ -4072,7 +4231,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>832</v>
+      </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
@@ -4098,7 +4260,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>832</v>
+      </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
@@ -4124,7 +4289,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>832</v>
+      </c>
       <c r="B49" t="s">
         <v>56</v>
       </c>
@@ -4150,7 +4318,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>832</v>
+      </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
@@ -4176,7 +4347,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>832</v>
+      </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
@@ -4202,7 +4376,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>832</v>
+      </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
@@ -4228,7 +4405,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>832</v>
+      </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
@@ -4254,7 +4434,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>832</v>
+      </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
@@ -4280,7 +4463,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>832</v>
+      </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
@@ -4306,7 +4492,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>832</v>
+      </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
@@ -4332,7 +4521,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>832</v>
+      </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
@@ -4358,7 +4550,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>832</v>
+      </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
@@ -4384,7 +4579,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>832</v>
+      </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
@@ -4410,7 +4608,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>832</v>
+      </c>
       <c r="B60" t="s">
         <v>67</v>
       </c>
@@ -4436,7 +4637,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>832</v>
+      </c>
       <c r="B61" t="s">
         <v>68</v>
       </c>
@@ -4462,7 +4666,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>832</v>
+      </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -4488,7 +4695,10 @@
         <v>740</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>832</v>
+      </c>
       <c r="B63" t="s">
         <v>70</v>
       </c>
@@ -4514,7 +4724,10 @@
         <v>741</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>832</v>
+      </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
@@ -4540,7 +4753,10 @@
         <v>742</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>832</v>
+      </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
@@ -4566,7 +4782,10 @@
         <v>738</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>832</v>
+      </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
@@ -4592,7 +4811,10 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>832</v>
+      </c>
       <c r="B67" t="s">
         <v>74</v>
       </c>
@@ -4618,7 +4840,10 @@
         <v>743</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>832</v>
+      </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
@@ -4644,7 +4869,10 @@
         <v>744</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>832</v>
+      </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
@@ -4670,7 +4898,10 @@
         <v>745</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>832</v>
+      </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
@@ -4696,7 +4927,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>832</v>
+      </c>
       <c r="B71" t="s">
         <v>78</v>
       </c>
@@ -4722,7 +4956,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>832</v>
+      </c>
       <c r="B72" t="s">
         <v>79</v>
       </c>
@@ -4748,7 +4985,10 @@
         <v>731</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>832</v>
+      </c>
       <c r="B73" t="s">
         <v>80</v>
       </c>
@@ -4774,7 +5014,10 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>832</v>
+      </c>
       <c r="B74" t="s">
         <v>81</v>
       </c>
@@ -4800,7 +5043,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>832</v>
+      </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
@@ -4826,7 +5072,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>832</v>
+      </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
@@ -4852,7 +5101,10 @@
         <v>748</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>832</v>
+      </c>
       <c r="B77" t="s">
         <v>84</v>
       </c>
@@ -4878,7 +5130,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>832</v>
+      </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
@@ -4904,7 +5159,10 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>832</v>
+      </c>
       <c r="B79" t="s">
         <v>86</v>
       </c>
@@ -4930,7 +5188,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>832</v>
+      </c>
       <c r="B80" t="s">
         <v>87</v>
       </c>
@@ -4956,7 +5217,10 @@
         <v>751</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>832</v>
+      </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
@@ -4982,7 +5246,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>832</v>
+      </c>
       <c r="B82" t="s">
         <v>89</v>
       </c>
@@ -5008,7 +5275,10 @@
         <v>753</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>832</v>
+      </c>
       <c r="B83" t="s">
         <v>90</v>
       </c>
@@ -5034,7 +5304,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>832</v>
+      </c>
       <c r="B84" t="s">
         <v>91</v>
       </c>
@@ -5060,7 +5333,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>832</v>
+      </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
@@ -5086,7 +5362,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>832</v>
+      </c>
       <c r="B86" t="s">
         <v>93</v>
       </c>
@@ -5112,7 +5391,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>832</v>
+      </c>
       <c r="B87" t="s">
         <v>94</v>
       </c>
@@ -5138,7 +5420,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>832</v>
+      </c>
       <c r="B88" t="s">
         <v>95</v>
       </c>
@@ -5164,7 +5449,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>832</v>
+      </c>
       <c r="B89" t="s">
         <v>96</v>
       </c>
@@ -5190,7 +5478,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>832</v>
+      </c>
       <c r="B90" t="s">
         <v>97</v>
       </c>
@@ -5216,7 +5507,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>832</v>
+      </c>
       <c r="B91" t="s">
         <v>98</v>
       </c>
@@ -5242,7 +5536,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>832</v>
+      </c>
       <c r="B92" t="s">
         <v>99</v>
       </c>
@@ -5268,7 +5565,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>832</v>
+      </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
@@ -5294,7 +5594,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>832</v>
+      </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
@@ -5320,7 +5623,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>832</v>
+      </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
@@ -5346,7 +5652,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>832</v>
+      </c>
       <c r="B96" t="s">
         <v>103</v>
       </c>
@@ -5372,7 +5681,10 @@
         <v>754</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>832</v>
+      </c>
       <c r="B97" t="s">
         <v>104</v>
       </c>
@@ -5398,7 +5710,10 @@
         <v>755</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>832</v>
+      </c>
       <c r="B98" t="s">
         <v>105</v>
       </c>
@@ -5424,7 +5739,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>832</v>
+      </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
@@ -5450,7 +5768,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>832</v>
+      </c>
       <c r="B100" t="s">
         <v>107</v>
       </c>
@@ -5476,7 +5797,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>832</v>
+      </c>
       <c r="B101" t="s">
         <v>108</v>
       </c>
@@ -5502,7 +5826,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>832</v>
+      </c>
       <c r="B102" t="s">
         <v>109</v>
       </c>
@@ -5528,7 +5855,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>832</v>
+      </c>
       <c r="B103" t="s">
         <v>110</v>
       </c>
@@ -5554,7 +5884,10 @@
         <v>756</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>832</v>
+      </c>
       <c r="B104" t="s">
         <v>111</v>
       </c>
@@ -5580,7 +5913,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>832</v>
+      </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
@@ -5606,7 +5942,10 @@
         <v>757</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>832</v>
+      </c>
       <c r="B106" t="s">
         <v>113</v>
       </c>
@@ -5632,7 +5971,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>832</v>
+      </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
@@ -5658,7 +6000,10 @@
         <v>758</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>832</v>
+      </c>
       <c r="B108" t="s">
         <v>115</v>
       </c>
@@ -5684,7 +6029,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>832</v>
+      </c>
       <c r="B109" t="s">
         <v>116</v>
       </c>
@@ -5710,7 +6058,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>832</v>
+      </c>
       <c r="B110" t="s">
         <v>117</v>
       </c>
@@ -5736,7 +6087,10 @@
         <v>759</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>832</v>
+      </c>
       <c r="B111" t="s">
         <v>118</v>
       </c>
@@ -5762,7 +6116,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>832</v>
+      </c>
       <c r="B112" t="s">
         <v>119</v>
       </c>
@@ -5788,7 +6145,10 @@
         <v>760</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>832</v>
+      </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
@@ -5814,7 +6174,10 @@
         <v>761</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>832</v>
+      </c>
       <c r="B114" t="s">
         <v>121</v>
       </c>
@@ -5840,7 +6203,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>832</v>
+      </c>
       <c r="B115" t="s">
         <v>122</v>
       </c>
@@ -5866,7 +6232,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>832</v>
+      </c>
       <c r="B116" t="s">
         <v>123</v>
       </c>
@@ -5892,7 +6261,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>832</v>
+      </c>
       <c r="B117" t="s">
         <v>124</v>
       </c>
@@ -5918,7 +6290,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>832</v>
+      </c>
       <c r="B118" t="s">
         <v>125</v>
       </c>
@@ -5944,7 +6319,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>832</v>
+      </c>
       <c r="B119" t="s">
         <v>126</v>
       </c>
@@ -5970,7 +6348,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>832</v>
+      </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
@@ -5996,7 +6377,10 @@
         <v>762</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>832</v>
+      </c>
       <c r="B121" t="s">
         <v>128</v>
       </c>
@@ -6022,7 +6406,10 @@
         <v>763</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>832</v>
+      </c>
       <c r="B122" t="s">
         <v>129</v>
       </c>
@@ -6048,7 +6435,10 @@
         <v>764</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>832</v>
+      </c>
       <c r="B123" t="s">
         <v>130</v>
       </c>
@@ -6074,7 +6464,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>832</v>
+      </c>
       <c r="B124" t="s">
         <v>131</v>
       </c>
@@ -6100,7 +6493,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>832</v>
+      </c>
       <c r="B125" t="s">
         <v>132</v>
       </c>
@@ -6126,7 +6522,10 @@
         <v>762</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>832</v>
+      </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
@@ -6152,7 +6551,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>832</v>
+      </c>
       <c r="B127" t="s">
         <v>134</v>
       </c>
@@ -6178,7 +6580,10 @@
         <v>765</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>832</v>
+      </c>
       <c r="B128" t="s">
         <v>135</v>
       </c>
@@ -6204,7 +6609,10 @@
         <v>766</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>832</v>
+      </c>
       <c r="B129" t="s">
         <v>136</v>
       </c>
@@ -6230,7 +6638,10 @@
         <v>767</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>832</v>
+      </c>
       <c r="B130" t="s">
         <v>137</v>
       </c>
@@ -6256,7 +6667,10 @@
         <v>768</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>832</v>
+      </c>
       <c r="B131" t="s">
         <v>138</v>
       </c>
@@ -6282,7 +6696,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>832</v>
+      </c>
       <c r="B132" t="s">
         <v>139</v>
       </c>
@@ -6308,7 +6725,10 @@
         <v>769</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>832</v>
+      </c>
       <c r="B133" t="s">
         <v>140</v>
       </c>
@@ -6334,7 +6754,10 @@
         <v>770</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>832</v>
+      </c>
       <c r="B134" t="s">
         <v>141</v>
       </c>
@@ -6360,7 +6783,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>832</v>
+      </c>
       <c r="B135" t="s">
         <v>142</v>
       </c>
@@ -6386,7 +6812,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>832</v>
+      </c>
       <c r="B136" t="s">
         <v>143</v>
       </c>
@@ -6412,7 +6841,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>832</v>
+      </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
@@ -6438,7 +6870,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>832</v>
+      </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
@@ -6464,7 +6899,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>832</v>
+      </c>
       <c r="B139" t="s">
         <v>146</v>
       </c>
@@ -6490,7 +6928,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>832</v>
+      </c>
       <c r="B140" t="s">
         <v>147</v>
       </c>
@@ -6516,7 +6957,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>832</v>
+      </c>
       <c r="B141" t="s">
         <v>148</v>
       </c>
@@ -6542,7 +6986,10 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>832</v>
+      </c>
       <c r="B142" t="s">
         <v>149</v>
       </c>
@@ -6568,7 +7015,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>832</v>
+      </c>
       <c r="B143" t="s">
         <v>150</v>
       </c>
@@ -6594,7 +7044,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>832</v>
+      </c>
       <c r="B144" t="s">
         <v>151</v>
       </c>
@@ -6620,7 +7073,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>832</v>
+      </c>
       <c r="B145" t="s">
         <v>152</v>
       </c>
@@ -6646,7 +7102,10 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>832</v>
+      </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
@@ -6672,7 +7131,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>832</v>
+      </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
@@ -6698,7 +7160,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>832</v>
+      </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
@@ -6724,7 +7189,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>832</v>
+      </c>
       <c r="B149" t="s">
         <v>156</v>
       </c>
@@ -6750,7 +7218,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>832</v>
+      </c>
       <c r="B150" t="s">
         <v>157</v>
       </c>
@@ -6776,7 +7247,10 @@
         <v>775</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>832</v>
+      </c>
       <c r="B151" t="s">
         <v>158</v>
       </c>
@@ -6802,7 +7276,10 @@
         <v>742</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>832</v>
+      </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
@@ -6828,7 +7305,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>832</v>
+      </c>
       <c r="B153" t="s">
         <v>160</v>
       </c>
@@ -6854,7 +7334,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>832</v>
+      </c>
       <c r="B154" t="s">
         <v>161</v>
       </c>
@@ -6880,7 +7363,10 @@
         <v>776</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>832</v>
+      </c>
       <c r="B155" t="s">
         <v>162</v>
       </c>
@@ -6906,7 +7392,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>832</v>
+      </c>
       <c r="B156" t="s">
         <v>163</v>
       </c>
@@ -6932,7 +7421,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>832</v>
+      </c>
       <c r="B157" t="s">
         <v>164</v>
       </c>
@@ -6958,7 +7450,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>832</v>
+      </c>
       <c r="B158" t="s">
         <v>165</v>
       </c>
@@ -6984,7 +7479,10 @@
         <v>778</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>832</v>
+      </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
@@ -7010,7 +7508,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>832</v>
+      </c>
       <c r="B160" t="s">
         <v>167</v>
       </c>
@@ -7036,7 +7537,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>832</v>
+      </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
@@ -7062,7 +7566,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>832</v>
+      </c>
       <c r="B162" t="s">
         <v>169</v>
       </c>
@@ -7088,7 +7595,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>832</v>
+      </c>
       <c r="B163" t="s">
         <v>170</v>
       </c>
@@ -7114,7 +7624,10 @@
         <v>779</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>832</v>
+      </c>
       <c r="B164" t="s">
         <v>171</v>
       </c>
@@ -7140,7 +7653,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>832</v>
+      </c>
       <c r="B165" t="s">
         <v>172</v>
       </c>
@@ -7166,7 +7682,10 @@
         <v>780</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>832</v>
+      </c>
       <c r="B166" t="s">
         <v>173</v>
       </c>
@@ -7192,7 +7711,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>832</v>
+      </c>
       <c r="B167" t="s">
         <v>174</v>
       </c>
@@ -7218,7 +7740,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>832</v>
+      </c>
       <c r="B168" t="s">
         <v>175</v>
       </c>
@@ -7244,7 +7769,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>832</v>
+      </c>
       <c r="B169" t="s">
         <v>176</v>
       </c>
@@ -7270,7 +7798,10 @@
         <v>781</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>832</v>
+      </c>
       <c r="B170" t="s">
         <v>177</v>
       </c>
@@ -7296,7 +7827,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>832</v>
+      </c>
       <c r="B171" t="s">
         <v>178</v>
       </c>
@@ -7322,7 +7856,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>832</v>
+      </c>
       <c r="B172" t="s">
         <v>179</v>
       </c>
@@ -7348,7 +7885,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>832</v>
+      </c>
       <c r="B173" t="s">
         <v>180</v>
       </c>
@@ -7374,7 +7914,10 @@
         <v>782</v>
       </c>
     </row>
-    <row r="174" spans="2:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>832</v>
+      </c>
       <c r="B174" t="s">
         <v>181</v>
       </c>
@@ -7400,7 +7943,10 @@
         <v>782</v>
       </c>
     </row>
-    <row r="175" spans="2:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>832</v>
+      </c>
       <c r="B175" t="s">
         <v>182</v>
       </c>
@@ -7426,7 +7972,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="176" spans="2:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>832</v>
+      </c>
       <c r="B176" t="s">
         <v>183</v>
       </c>
@@ -7452,7 +8001,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>832</v>
+      </c>
       <c r="B177" t="s">
         <v>184</v>
       </c>
@@ -7478,7 +8030,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>832</v>
+      </c>
       <c r="B178" t="s">
         <v>185</v>
       </c>
@@ -7504,7 +8059,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>832</v>
+      </c>
       <c r="B179" t="s">
         <v>186</v>
       </c>
@@ -7530,7 +8088,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>832</v>
+      </c>
       <c r="B180" t="s">
         <v>187</v>
       </c>
@@ -7556,7 +8117,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="2:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>832</v>
+      </c>
       <c r="B181" t="s">
         <v>188</v>
       </c>
@@ -7582,7 +8146,10 @@
         <v>784</v>
       </c>
     </row>
-    <row r="182" spans="2:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>832</v>
+      </c>
       <c r="B182" t="s">
         <v>189</v>
       </c>
@@ -7608,7 +8175,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="2:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>832</v>
+      </c>
       <c r="B183" t="s">
         <v>190</v>
       </c>
@@ -7634,7 +8204,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="2:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>832</v>
+      </c>
       <c r="B184" t="s">
         <v>191</v>
       </c>
@@ -7660,7 +8233,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="2:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>832</v>
+      </c>
       <c r="B185" t="s">
         <v>192</v>
       </c>
@@ -7686,7 +8262,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="186" spans="2:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>832</v>
+      </c>
       <c r="B186" t="s">
         <v>193</v>
       </c>
@@ -7712,7 +8291,10 @@
         <v>785</v>
       </c>
     </row>
-    <row r="187" spans="2:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>832</v>
+      </c>
       <c r="B187" t="s">
         <v>194</v>
       </c>
@@ -7738,7 +8320,10 @@
         <v>786</v>
       </c>
     </row>
-    <row r="188" spans="2:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>832</v>
+      </c>
       <c r="B188" t="s">
         <v>195</v>
       </c>
@@ -7764,7 +8349,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="2:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>832</v>
+      </c>
       <c r="B189" t="s">
         <v>196</v>
       </c>
@@ -7790,7 +8378,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="190" spans="2:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>832</v>
+      </c>
       <c r="B190" t="s">
         <v>197</v>
       </c>
@@ -7816,7 +8407,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="2:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>832</v>
+      </c>
       <c r="B191" t="s">
         <v>198</v>
       </c>
@@ -7842,7 +8436,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="192" spans="2:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>832</v>
+      </c>
       <c r="B192" t="s">
         <v>199</v>
       </c>
@@ -7868,7 +8465,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="193" spans="2:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>832</v>
+      </c>
       <c r="B193" t="s">
         <v>200</v>
       </c>
@@ -7894,7 +8494,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="194" spans="2:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>832</v>
+      </c>
       <c r="B194" t="s">
         <v>201</v>
       </c>
@@ -7920,7 +8523,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="195" spans="2:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>832</v>
+      </c>
       <c r="B195" t="s">
         <v>202</v>
       </c>
@@ -7946,7 +8552,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="196" spans="2:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>832</v>
+      </c>
       <c r="B196" t="s">
         <v>203</v>
       </c>
@@ -7972,7 +8581,10 @@
         <v>787</v>
       </c>
     </row>
-    <row r="197" spans="2:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>832</v>
+      </c>
       <c r="B197" t="s">
         <v>204</v>
       </c>
@@ -7998,7 +8610,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="198" spans="2:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>832</v>
+      </c>
       <c r="B198" t="s">
         <v>205</v>
       </c>
@@ -8024,7 +8639,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="199" spans="2:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>832</v>
+      </c>
       <c r="B199" t="s">
         <v>206</v>
       </c>
@@ -8050,7 +8668,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="200" spans="2:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>832</v>
+      </c>
       <c r="B200" t="s">
         <v>207</v>
       </c>
@@ -8076,7 +8697,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="201" spans="2:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>832</v>
+      </c>
       <c r="B201" t="s">
         <v>208</v>
       </c>
@@ -8102,7 +8726,10 @@
         <v>787</v>
       </c>
     </row>
-    <row r="202" spans="2:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>832</v>
+      </c>
       <c r="B202" t="s">
         <v>209</v>
       </c>
@@ -8128,7 +8755,10 @@
         <v>789</v>
       </c>
     </row>
-    <row r="203" spans="2:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>832</v>
+      </c>
       <c r="B203" t="s">
         <v>210</v>
       </c>
@@ -8154,7 +8784,10 @@
         <v>790</v>
       </c>
     </row>
-    <row r="204" spans="2:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>832</v>
+      </c>
       <c r="B204" t="s">
         <v>211</v>
       </c>
@@ -8180,7 +8813,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="2:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>832</v>
+      </c>
       <c r="B205" t="s">
         <v>212</v>
       </c>
@@ -8206,7 +8842,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="206" spans="2:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>832</v>
+      </c>
       <c r="B206" t="s">
         <v>213</v>
       </c>
@@ -8232,7 +8871,10 @@
         <v>792</v>
       </c>
     </row>
-    <row r="207" spans="2:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>832</v>
+      </c>
       <c r="B207" t="s">
         <v>214</v>
       </c>
@@ -8258,7 +8900,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="208" spans="2:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>832</v>
+      </c>
       <c r="B208" t="s">
         <v>215</v>
       </c>
@@ -8284,7 +8929,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="2:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>832</v>
+      </c>
       <c r="B209" t="s">
         <v>216</v>
       </c>
@@ -8310,7 +8958,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="210" spans="2:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>832</v>
+      </c>
       <c r="B210" t="s">
         <v>217</v>
       </c>
@@ -8336,7 +8987,10 @@
         <v>793</v>
       </c>
     </row>
-    <row r="211" spans="2:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>832</v>
+      </c>
       <c r="B211" t="s">
         <v>218</v>
       </c>
@@ -8362,7 +9016,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="2:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>832</v>
+      </c>
       <c r="B212" t="s">
         <v>219</v>
       </c>
@@ -8388,7 +9045,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="213" spans="2:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>832</v>
+      </c>
       <c r="B213" t="s">
         <v>220</v>
       </c>
@@ -8414,7 +9074,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="214" spans="2:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>832</v>
+      </c>
       <c r="B214" t="s">
         <v>221</v>
       </c>
@@ -8440,7 +9103,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="215" spans="2:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>832</v>
+      </c>
       <c r="B215" t="s">
         <v>222</v>
       </c>
@@ -8466,7 +9132,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="216" spans="2:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>832</v>
+      </c>
       <c r="B216" t="s">
         <v>223</v>
       </c>
@@ -8492,7 +9161,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="2:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>832</v>
+      </c>
       <c r="B217" t="s">
         <v>224</v>
       </c>
@@ -8518,7 +9190,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="218" spans="2:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>832</v>
+      </c>
       <c r="B218" t="s">
         <v>225</v>
       </c>
@@ -8544,7 +9219,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="219" spans="2:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>832</v>
+      </c>
       <c r="B219" t="s">
         <v>226</v>
       </c>
@@ -8570,7 +9248,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="220" spans="2:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>832</v>
+      </c>
       <c r="B220" t="s">
         <v>227</v>
       </c>
@@ -8596,7 +9277,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="221" spans="2:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>832</v>
+      </c>
       <c r="B221" t="s">
         <v>228</v>
       </c>
@@ -8622,7 +9306,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="222" spans="2:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>832</v>
+      </c>
       <c r="B222" t="s">
         <v>229</v>
       </c>
@@ -8648,7 +9335,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="223" spans="2:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>832</v>
+      </c>
       <c r="B223" t="s">
         <v>230</v>
       </c>
@@ -8674,7 +9364,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="224" spans="2:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>832</v>
+      </c>
       <c r="B224" t="s">
         <v>231</v>
       </c>
@@ -8700,7 +9393,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="225" spans="2:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>832</v>
+      </c>
       <c r="B225" t="s">
         <v>232</v>
       </c>
@@ -8726,7 +9422,10 @@
         <v>795</v>
       </c>
     </row>
-    <row r="226" spans="2:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>832</v>
+      </c>
       <c r="B226" t="s">
         <v>233</v>
       </c>
@@ -8752,7 +9451,10 @@
         <v>796</v>
       </c>
     </row>
-    <row r="227" spans="2:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>832</v>
+      </c>
       <c r="B227" t="s">
         <v>234</v>
       </c>
@@ -8778,7 +9480,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="228" spans="2:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>832</v>
+      </c>
       <c r="B228" t="s">
         <v>235</v>
       </c>
@@ -8804,7 +9509,10 @@
         <v>797</v>
       </c>
     </row>
-    <row r="229" spans="2:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>832</v>
+      </c>
       <c r="B229" t="s">
         <v>236</v>
       </c>
@@ -8830,7 +9538,10 @@
         <v>798</v>
       </c>
     </row>
-    <row r="230" spans="2:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>832</v>
+      </c>
       <c r="B230" t="s">
         <v>237</v>
       </c>
@@ -8856,7 +9567,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="231" spans="2:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>832</v>
+      </c>
       <c r="B231" t="s">
         <v>238</v>
       </c>
@@ -8882,7 +9596,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="232" spans="2:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>832</v>
+      </c>
       <c r="B232" t="s">
         <v>239</v>
       </c>
@@ -8908,7 +9625,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="233" spans="2:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>832</v>
+      </c>
       <c r="B233" t="s">
         <v>240</v>
       </c>
@@ -8934,7 +9654,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="234" spans="2:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>832</v>
+      </c>
       <c r="B234" t="s">
         <v>241</v>
       </c>
@@ -8960,7 +9683,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="235" spans="2:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>832</v>
+      </c>
       <c r="B235" t="s">
         <v>242</v>
       </c>
@@ -8986,7 +9712,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="236" spans="2:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>832</v>
+      </c>
       <c r="B236" t="s">
         <v>243</v>
       </c>
@@ -9012,7 +9741,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="2:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>832</v>
+      </c>
       <c r="B237" t="s">
         <v>244</v>
       </c>
@@ -9038,7 +9770,10 @@
         <v>799</v>
       </c>
     </row>
-    <row r="238" spans="2:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>832</v>
+      </c>
       <c r="B238" t="s">
         <v>245</v>
       </c>
@@ -9064,7 +9799,10 @@
         <v>800</v>
       </c>
     </row>
-    <row r="239" spans="2:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>832</v>
+      </c>
       <c r="B239" t="s">
         <v>246</v>
       </c>
@@ -9090,7 +9828,10 @@
         <v>801</v>
       </c>
     </row>
-    <row r="240" spans="2:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>832</v>
+      </c>
       <c r="B240" t="s">
         <v>247</v>
       </c>
@@ -9116,7 +9857,10 @@
         <v>757</v>
       </c>
     </row>
-    <row r="241" spans="2:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>832</v>
+      </c>
       <c r="B241" t="s">
         <v>248</v>
       </c>
@@ -9142,7 +9886,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="242" spans="2:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>832</v>
+      </c>
       <c r="B242" t="s">
         <v>249</v>
       </c>
@@ -9168,7 +9915,10 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" spans="2:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>832</v>
+      </c>
       <c r="B243" t="s">
         <v>250</v>
       </c>
@@ -9194,7 +9944,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="244" spans="2:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>832</v>
+      </c>
       <c r="B244" t="s">
         <v>251</v>
       </c>
@@ -9220,7 +9973,10 @@
         <v>781</v>
       </c>
     </row>
-    <row r="245" spans="2:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>832</v>
+      </c>
       <c r="B245" t="s">
         <v>252</v>
       </c>
@@ -9246,7 +10002,10 @@
         <v>767</v>
       </c>
     </row>
-    <row r="246" spans="2:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>832</v>
+      </c>
       <c r="B246" t="s">
         <v>253</v>
       </c>
@@ -9272,7 +10031,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="247" spans="2:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>832</v>
+      </c>
       <c r="B247" t="s">
         <v>254</v>
       </c>
@@ -9298,7 +10060,10 @@
         <v>803</v>
       </c>
     </row>
-    <row r="248" spans="2:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>832</v>
+      </c>
       <c r="B248" t="s">
         <v>255</v>
       </c>
@@ -9324,7 +10089,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="249" spans="2:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>832</v>
+      </c>
       <c r="B249" t="s">
         <v>256</v>
       </c>
@@ -9350,7 +10118,10 @@
         <v>804</v>
       </c>
     </row>
-    <row r="250" spans="2:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>832</v>
+      </c>
       <c r="B250" t="s">
         <v>257</v>
       </c>
@@ -9376,7 +10147,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="251" spans="2:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>832</v>
+      </c>
       <c r="B251" t="s">
         <v>258</v>
       </c>
@@ -9402,7 +10176,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="2:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>832</v>
+      </c>
       <c r="B252" t="s">
         <v>259</v>
       </c>
@@ -9428,7 +10205,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="253" spans="2:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>832</v>
+      </c>
       <c r="B253" t="s">
         <v>260</v>
       </c>
@@ -9454,7 +10234,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="254" spans="2:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>832</v>
+      </c>
       <c r="B254" t="s">
         <v>261</v>
       </c>
@@ -9480,7 +10263,10 @@
         <v>804</v>
       </c>
     </row>
-    <row r="255" spans="2:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>832</v>
+      </c>
       <c r="B255" t="s">
         <v>262</v>
       </c>
@@ -9506,7 +10292,10 @@
         <v>797</v>
       </c>
     </row>
-    <row r="256" spans="2:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>832</v>
+      </c>
       <c r="B256" t="s">
         <v>263</v>
       </c>
@@ -9532,7 +10321,10 @@
         <v>770</v>
       </c>
     </row>
-    <row r="257" spans="2:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>832</v>
+      </c>
       <c r="B257" t="s">
         <v>264</v>
       </c>
@@ -9558,7 +10350,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="258" spans="2:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>832</v>
+      </c>
       <c r="B258" t="s">
         <v>265</v>
       </c>
@@ -9584,7 +10379,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="259" spans="2:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>832</v>
+      </c>
       <c r="B259" t="s">
         <v>266</v>
       </c>
@@ -9610,7 +10408,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="260" spans="2:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>832</v>
+      </c>
       <c r="B260" t="s">
         <v>267</v>
       </c>
@@ -9636,7 +10437,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="261" spans="2:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>832</v>
+      </c>
       <c r="B261" t="s">
         <v>268</v>
       </c>
@@ -9662,7 +10466,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="2:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>832</v>
+      </c>
       <c r="B262" t="s">
         <v>269</v>
       </c>
@@ -9688,7 +10495,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="263" spans="2:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>832</v>
+      </c>
       <c r="B263" t="s">
         <v>270</v>
       </c>
@@ -9714,7 +10524,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="264" spans="2:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>832</v>
+      </c>
       <c r="B264" t="s">
         <v>271</v>
       </c>
@@ -9740,7 +10553,10 @@
         <v>806</v>
       </c>
     </row>
-    <row r="265" spans="2:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>832</v>
+      </c>
       <c r="B265" t="s">
         <v>272</v>
       </c>
@@ -9766,7 +10582,10 @@
         <v>807</v>
       </c>
     </row>
-    <row r="266" spans="2:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>832</v>
+      </c>
       <c r="B266" t="s">
         <v>273</v>
       </c>
@@ -9792,7 +10611,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="2:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>832</v>
+      </c>
       <c r="B267" t="s">
         <v>274</v>
       </c>
@@ -9818,7 +10640,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="268" spans="2:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>832</v>
+      </c>
       <c r="B268" t="s">
         <v>275</v>
       </c>
@@ -9844,7 +10669,10 @@
         <v>808</v>
       </c>
     </row>
-    <row r="269" spans="2:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>832</v>
+      </c>
       <c r="B269" t="s">
         <v>276</v>
       </c>
@@ -9870,7 +10698,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="270" spans="2:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>832</v>
+      </c>
       <c r="B270" t="s">
         <v>277</v>
       </c>
@@ -9896,7 +10727,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="271" spans="2:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>832</v>
+      </c>
       <c r="B271" t="s">
         <v>278</v>
       </c>
@@ -9922,7 +10756,10 @@
         <v>809</v>
       </c>
     </row>
-    <row r="272" spans="2:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>832</v>
+      </c>
       <c r="B272" t="s">
         <v>279</v>
       </c>
@@ -9948,7 +10785,10 @@
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="2:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>832</v>
+      </c>
       <c r="B273" t="s">
         <v>280</v>
       </c>
@@ -9974,7 +10814,10 @@
         <v>811</v>
       </c>
     </row>
-    <row r="274" spans="2:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>832</v>
+      </c>
       <c r="B274" t="s">
         <v>281</v>
       </c>
@@ -10000,7 +10843,10 @@
         <v>812</v>
       </c>
     </row>
-    <row r="275" spans="2:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>832</v>
+      </c>
       <c r="B275" t="s">
         <v>282</v>
       </c>
@@ -10026,7 +10872,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="276" spans="2:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>832</v>
+      </c>
       <c r="B276" t="s">
         <v>283</v>
       </c>
@@ -10052,7 +10901,10 @@
         <v>813</v>
       </c>
     </row>
-    <row r="277" spans="2:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>832</v>
+      </c>
       <c r="B277" t="s">
         <v>284</v>
       </c>
@@ -10078,7 +10930,10 @@
         <v>799</v>
       </c>
     </row>
-    <row r="278" spans="2:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>832</v>
+      </c>
       <c r="B278" t="s">
         <v>285</v>
       </c>
@@ -10104,7 +10959,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="279" spans="2:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>832</v>
+      </c>
       <c r="B279" t="s">
         <v>286</v>
       </c>
@@ -10130,7 +10988,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="280" spans="2:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>832</v>
+      </c>
       <c r="B280" t="s">
         <v>287</v>
       </c>
@@ -10156,7 +11017,10 @@
         <v>814</v>
       </c>
     </row>
-    <row r="281" spans="2:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>832</v>
+      </c>
       <c r="B281" t="s">
         <v>288</v>
       </c>
@@ -10182,7 +11046,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="282" spans="2:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>832</v>
+      </c>
       <c r="B282" t="s">
         <v>289</v>
       </c>
@@ -10208,7 +11075,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="283" spans="2:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>832</v>
+      </c>
       <c r="B283" t="s">
         <v>290</v>
       </c>
@@ -10234,7 +11104,10 @@
         <v>815</v>
       </c>
     </row>
-    <row r="284" spans="2:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>832</v>
+      </c>
       <c r="B284" t="s">
         <v>291</v>
       </c>
@@ -10260,7 +11133,10 @@
         <v>785</v>
       </c>
     </row>
-    <row r="285" spans="2:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>832</v>
+      </c>
       <c r="B285" t="s">
         <v>292</v>
       </c>
@@ -10286,7 +11162,10 @@
         <v>816</v>
       </c>
     </row>
-    <row r="286" spans="2:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>832</v>
+      </c>
       <c r="B286" t="s">
         <v>293</v>
       </c>
@@ -10312,7 +11191,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="287" spans="2:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>832</v>
+      </c>
       <c r="B287" t="s">
         <v>294</v>
       </c>
@@ -10338,7 +11220,10 @@
         <v>817</v>
       </c>
     </row>
-    <row r="288" spans="2:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>832</v>
+      </c>
       <c r="B288" t="s">
         <v>295</v>
       </c>
@@ -10364,7 +11249,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="289" spans="2:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>832</v>
+      </c>
       <c r="B289" t="s">
         <v>296</v>
       </c>
@@ -10390,7 +11278,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="290" spans="2:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>832</v>
+      </c>
       <c r="B290" t="s">
         <v>297</v>
       </c>
@@ -10416,7 +11307,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="291" spans="2:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>832</v>
+      </c>
       <c r="B291" t="s">
         <v>298</v>
       </c>
@@ -10442,7 +11336,10 @@
         <v>818</v>
       </c>
     </row>
-    <row r="292" spans="2:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>832</v>
+      </c>
       <c r="B292" t="s">
         <v>299</v>
       </c>
@@ -10468,7 +11365,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="293" spans="2:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>832</v>
+      </c>
       <c r="B293" t="s">
         <v>300</v>
       </c>
@@ -10494,7 +11394,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="294" spans="2:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>832</v>
+      </c>
       <c r="B294" t="s">
         <v>301</v>
       </c>
@@ -10520,7 +11423,10 @@
         <v>756</v>
       </c>
     </row>
-    <row r="295" spans="2:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>832</v>
+      </c>
       <c r="B295" t="s">
         <v>302</v>
       </c>
@@ -10546,7 +11452,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="296" spans="2:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>832</v>
+      </c>
       <c r="B296" t="s">
         <v>303</v>
       </c>
@@ -10572,7 +11481,10 @@
         <v>819</v>
       </c>
     </row>
-    <row r="297" spans="2:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>832</v>
+      </c>
       <c r="B297" t="s">
         <v>304</v>
       </c>
@@ -10598,7 +11510,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="298" spans="2:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>832</v>
+      </c>
       <c r="B298" t="s">
         <v>305</v>
       </c>
@@ -10624,7 +11539,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="299" spans="2:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>832</v>
+      </c>
       <c r="B299" t="s">
         <v>306</v>
       </c>
@@ -10650,7 +11568,10 @@
         <v>820</v>
       </c>
     </row>
-    <row r="300" spans="2:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>832</v>
+      </c>
       <c r="B300" t="s">
         <v>307</v>
       </c>
@@ -10676,7 +11597,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="301" spans="2:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>832</v>
+      </c>
       <c r="B301" t="s">
         <v>308</v>
       </c>
@@ -10702,7 +11626,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="302" spans="2:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>832</v>
+      </c>
       <c r="B302" t="s">
         <v>309</v>
       </c>
@@ -10728,7 +11655,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="2:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>832</v>
+      </c>
       <c r="B303" t="s">
         <v>310</v>
       </c>
@@ -10754,7 +11684,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="304" spans="2:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>832</v>
+      </c>
       <c r="B304" t="s">
         <v>311</v>
       </c>
@@ -10780,7 +11713,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="305" spans="2:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>832</v>
+      </c>
       <c r="B305" t="s">
         <v>312</v>
       </c>
@@ -10806,7 +11742,10 @@
         <v>821</v>
       </c>
     </row>
-    <row r="306" spans="2:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>832</v>
+      </c>
       <c r="B306" t="s">
         <v>313</v>
       </c>
@@ -10832,7 +11771,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="2:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>832</v>
+      </c>
       <c r="B307" t="s">
         <v>314</v>
       </c>
@@ -10858,7 +11800,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="2:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>832</v>
+      </c>
       <c r="B308" t="s">
         <v>315</v>
       </c>
@@ -10884,7 +11829,10 @@
         <v>822</v>
       </c>
     </row>
-    <row r="309" spans="2:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>832</v>
+      </c>
       <c r="B309" t="s">
         <v>316</v>
       </c>
@@ -10910,7 +11858,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="2:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>832</v>
+      </c>
       <c r="B310" t="s">
         <v>317</v>
       </c>
@@ -10936,7 +11887,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="311" spans="2:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>832</v>
+      </c>
       <c r="B311" t="s">
         <v>318</v>
       </c>
@@ -10962,7 +11916,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="312" spans="2:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>832</v>
+      </c>
       <c r="B312" t="s">
         <v>319</v>
       </c>
@@ -10988,7 +11945,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="313" spans="2:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>832</v>
+      </c>
       <c r="B313" t="s">
         <v>320</v>
       </c>
@@ -11014,7 +11974,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="314" spans="2:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>832</v>
+      </c>
       <c r="B314" t="s">
         <v>321</v>
       </c>
@@ -11040,7 +12003,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="315" spans="2:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>832</v>
+      </c>
       <c r="B315" t="s">
         <v>322</v>
       </c>
@@ -11066,7 +12032,10 @@
         <v>739</v>
       </c>
     </row>
-    <row r="316" spans="2:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>832</v>
+      </c>
       <c r="B316" t="s">
         <v>323</v>
       </c>
@@ -11092,7 +12061,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="317" spans="2:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>832</v>
+      </c>
       <c r="B317" t="s">
         <v>324</v>
       </c>
@@ -11118,7 +12090,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="318" spans="2:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>832</v>
+      </c>
       <c r="B318" t="s">
         <v>325</v>
       </c>
@@ -11144,7 +12119,10 @@
         <v>768</v>
       </c>
     </row>
-    <row r="319" spans="2:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>832</v>
+      </c>
       <c r="B319" t="s">
         <v>326</v>
       </c>
@@ -11170,7 +12148,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="320" spans="2:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>832</v>
+      </c>
       <c r="B320" t="s">
         <v>327</v>
       </c>
@@ -11196,7 +12177,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="321" spans="2:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>832</v>
+      </c>
       <c r="B321" t="s">
         <v>328</v>
       </c>
@@ -11222,7 +12206,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="322" spans="2:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>832</v>
+      </c>
       <c r="B322" t="s">
         <v>329</v>
       </c>
@@ -11248,7 +12235,10 @@
         <v>823</v>
       </c>
     </row>
-    <row r="323" spans="2:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>832</v>
+      </c>
       <c r="B323" t="s">
         <v>330</v>
       </c>
@@ -11274,7 +12264,10 @@
         <v>824</v>
       </c>
     </row>
-    <row r="324" spans="2:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>832</v>
+      </c>
       <c r="B324" t="s">
         <v>331</v>
       </c>
@@ -11300,7 +12293,10 @@
         <v>769</v>
       </c>
     </row>
-    <row r="325" spans="2:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>832</v>
+      </c>
       <c r="B325" t="s">
         <v>332</v>
       </c>
@@ -11326,7 +12322,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="326" spans="2:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>832</v>
+      </c>
       <c r="B326" t="s">
         <v>333</v>
       </c>
@@ -11352,7 +12351,10 @@
         <v>825</v>
       </c>
     </row>
-    <row r="327" spans="2:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>832</v>
+      </c>
       <c r="B327" t="s">
         <v>334</v>
       </c>
@@ -11378,7 +12380,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="328" spans="2:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>832</v>
+      </c>
       <c r="B328" t="s">
         <v>335</v>
       </c>
@@ -11404,7 +12409,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="329" spans="2:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>832</v>
+      </c>
       <c r="B329" t="s">
         <v>336</v>
       </c>
@@ -11430,7 +12438,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="330" spans="2:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>832</v>
+      </c>
       <c r="B330" t="s">
         <v>337</v>
       </c>
@@ -11456,7 +12467,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="331" spans="2:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>832</v>
+      </c>
       <c r="B331" t="s">
         <v>338</v>
       </c>
@@ -11482,7 +12496,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="332" spans="2:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>832</v>
+      </c>
       <c r="B332" t="s">
         <v>339</v>
       </c>
@@ -11508,7 +12525,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="333" spans="2:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>832</v>
+      </c>
       <c r="B333" t="s">
         <v>340</v>
       </c>
@@ -11534,7 +12554,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="334" spans="2:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>832</v>
+      </c>
       <c r="B334" t="s">
         <v>341</v>
       </c>
@@ -11560,7 +12583,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="335" spans="2:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>832</v>
+      </c>
       <c r="B335" t="s">
         <v>342</v>
       </c>
@@ -11586,7 +12612,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="336" spans="2:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>832</v>
+      </c>
       <c r="B336" t="s">
         <v>343</v>
       </c>
@@ -11612,7 +12641,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="337" spans="2:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>832</v>
+      </c>
       <c r="B337" t="s">
         <v>344</v>
       </c>
@@ -11638,7 +12670,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="2:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>832</v>
+      </c>
       <c r="B338" t="s">
         <v>345</v>
       </c>
@@ -11664,7 +12699,10 @@
         <v>826</v>
       </c>
     </row>
-    <row r="339" spans="2:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>832</v>
+      </c>
       <c r="B339" t="s">
         <v>346</v>
       </c>
@@ -11690,7 +12728,10 @@
         <v>827</v>
       </c>
     </row>
-    <row r="340" spans="2:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>832</v>
+      </c>
       <c r="B340" t="s">
         <v>347</v>
       </c>
@@ -11716,7 +12757,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="341" spans="2:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>832</v>
+      </c>
       <c r="B341" t="s">
         <v>348</v>
       </c>
@@ -11742,7 +12786,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="342" spans="2:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>832</v>
+      </c>
       <c r="B342" t="s">
         <v>349</v>
       </c>
@@ -11768,7 +12815,10 @@
         <v>828</v>
       </c>
     </row>
-    <row r="343" spans="2:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>832</v>
+      </c>
       <c r="B343" t="s">
         <v>350</v>
       </c>
@@ -11794,7 +12844,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="344" spans="2:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>832</v>
+      </c>
       <c r="B344" t="s">
         <v>351</v>
       </c>
@@ -11820,7 +12873,10 @@
         <v>829</v>
       </c>
     </row>
-    <row r="345" spans="2:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>832</v>
+      </c>
       <c r="B345" t="s">
         <v>352</v>
       </c>
@@ -11846,7 +12902,10 @@
         <v>830</v>
       </c>
     </row>
-    <row r="346" spans="2:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>832</v>
+      </c>
       <c r="B346" t="s">
         <v>353</v>
       </c>
@@ -11872,7 +12931,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="347" spans="2:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>832</v>
+      </c>
       <c r="B347" t="s">
         <v>354</v>
       </c>
@@ -11898,7 +12960,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="348" spans="2:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>832</v>
+      </c>
       <c r="B348" t="s">
         <v>355</v>
       </c>
@@ -11924,7 +12989,10 @@
         <v>827</v>
       </c>
     </row>
-    <row r="349" spans="2:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>832</v>
+      </c>
       <c r="B349" t="s">
         <v>356</v>
       </c>
@@ -11950,7 +13018,10 @@
         <v>830</v>
       </c>
     </row>
-    <row r="350" spans="2:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>832</v>
+      </c>
       <c r="B350" t="s">
         <v>357</v>
       </c>
@@ -11977,6 +13048,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/high_confidence_for_annotation_latex_fixed.xlsx
+++ b/high_confidence_for_annotation_latex_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0DE3E-7F3F-7645-BA1F-864BBF82F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A9233A-ADAE-8941-BCE3-D5EEEC8548CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-13760" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-13260" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3547,7 +3547,7 @@
     <t>PRELIMINARYTESTS_FORTHE_DIFFUSIONBONDINGOF.pdf</t>
   </si>
   <si>
-    <t>daisy</t>
+    <t>Daisy</t>
   </si>
 </sst>
 </file>
@@ -3917,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/high_confidence_for_annotation_latex_fixed.xlsx
+++ b/high_confidence_for_annotation_latex_fixed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="1089">
   <si>
     <t>task_type</t>
   </si>
@@ -52,6 +52,738 @@
     <t>uncertain</t>
   </si>
   <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>2072</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2361</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>2435</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>2442</t>
+  </si>
+  <si>
+    <t>2433</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>2905</t>
+  </si>
+  <si>
+    <t>2934</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>2965</t>
+  </si>
+  <si>
+    <t>2967</t>
+  </si>
+  <si>
+    <t>2998</t>
+  </si>
+  <si>
+    <t>2959</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>3062</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>3148</t>
+  </si>
+  <si>
+    <t>3142</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>3073</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>3117</t>
+  </si>
+  <si>
+    <t>3336</t>
+  </si>
+  <si>
+    <t>3337</t>
+  </si>
+  <si>
+    <t>3335</t>
+  </si>
+  <si>
+    <t>3338</t>
+  </si>
+  <si>
+    <t>3378</t>
+  </si>
+  <si>
+    <t>3362</t>
+  </si>
+  <si>
+    <t>3444</t>
+  </si>
+  <si>
+    <t>3439</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>3383</t>
+  </si>
+  <si>
+    <t>3503</t>
+  </si>
+  <si>
+    <t>3528</t>
+  </si>
+  <si>
+    <t>3506</t>
+  </si>
+  <si>
+    <t>3544</t>
+  </si>
+  <si>
+    <t>3507</t>
+  </si>
+  <si>
+    <t>3529</t>
+  </si>
+  <si>
+    <t>3648</t>
+  </si>
+  <si>
+    <t>3663</t>
+  </si>
+  <si>
+    <t>3705</t>
+  </si>
+  <si>
+    <t>3629</t>
+  </si>
+  <si>
+    <t>3717</t>
+  </si>
+  <si>
+    <t>3692</t>
+  </si>
+  <si>
+    <t>3727</t>
+  </si>
+  <si>
+    <t>3754</t>
+  </si>
+  <si>
+    <t>3762</t>
+  </si>
+  <si>
+    <t>3768</t>
+  </si>
+  <si>
+    <t>3759</t>
+  </si>
+  <si>
+    <t>3792</t>
+  </si>
+  <si>
+    <t>3926</t>
+  </si>
+  <si>
+    <t>3901</t>
+  </si>
+  <si>
+    <t>3909</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>3902</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1789</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>2658</t>
+  </si>
+  <si>
+    <t>2629</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>2607</t>
+  </si>
+  <si>
+    <t>2601</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>2808</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>2761</t>
+  </si>
+  <si>
+    <t>2811</t>
+  </si>
+  <si>
+    <t>2767</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>2898</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>2875</t>
+  </si>
+  <si>
+    <t>2877</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>3302</t>
+  </si>
+  <si>
+    <t>3279</t>
+  </si>
+  <si>
+    <t>3254</t>
+  </si>
+  <si>
+    <t>3316</t>
+  </si>
+  <si>
+    <t>3324</t>
+  </si>
+  <si>
+    <t>3872</t>
+  </si>
+  <si>
+    <t>3879</t>
+  </si>
+  <si>
+    <t>3835</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>3868</t>
+  </si>
+  <si>
+    <t>3831</t>
+  </si>
+  <si>
+    <t>4044</t>
+  </si>
+  <si>
+    <t>4025</t>
+  </si>
+  <si>
+    <t>4046</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>4015</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>4066</t>
+  </si>
+  <si>
+    <t>4075</t>
+  </si>
+  <si>
+    <t>4091</t>
+  </si>
+  <si>
+    <t>4080</t>
+  </si>
+  <si>
+    <t>4110</t>
+  </si>
+  <si>
+    <t>3216</t>
+  </si>
+  <si>
+    <t>3186</t>
+  </si>
+  <si>
+    <t>3203</t>
+  </si>
+  <si>
+    <t>3213</t>
+  </si>
+  <si>
+    <t>3194</t>
+  </si>
+  <si>
+    <t>3220</t>
+  </si>
+  <si>
+    <t>3587</t>
+  </si>
+  <si>
+    <t>3552</t>
+  </si>
+  <si>
+    <t>3563</t>
+  </si>
+  <si>
+    <t>3599</t>
+  </si>
+  <si>
+    <t>3602</t>
+  </si>
+  <si>
+    <t>3603</t>
+  </si>
+  <si>
     <t>900</t>
   </si>
   <si>
@@ -76,12 +808,6 @@
     <t>1953</t>
   </si>
   <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>2442</t>
-  </si>
-  <si>
     <t>2991</t>
   </si>
   <si>
@@ -115,60 +841,27 @@
     <t>2422</t>
   </si>
   <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>971</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
     <t>1129</t>
   </si>
   <si>
-    <t>1131</t>
-  </si>
-  <si>
     <t>1153</t>
   </si>
   <si>
-    <t>1274</t>
-  </si>
-  <si>
     <t>1319</t>
   </si>
   <si>
     <t>1704</t>
   </si>
   <si>
-    <t>1786</t>
-  </si>
-  <si>
     <t>2193</t>
   </si>
   <si>
     <t>2194</t>
   </si>
   <si>
-    <t>2200</t>
-  </si>
-  <si>
     <t>2207</t>
   </si>
   <si>
@@ -178,12 +871,6 @@
     <t>2663</t>
   </si>
   <si>
-    <t>2761</t>
-  </si>
-  <si>
-    <t>2811</t>
-  </si>
-  <si>
     <t>2878</t>
   </si>
   <si>
@@ -193,36 +880,21 @@
     <t>3183</t>
   </si>
   <si>
-    <t>3194</t>
-  </si>
-  <si>
     <t>3198</t>
   </si>
   <si>
     <t>3219</t>
   </si>
   <si>
-    <t>3254</t>
-  </si>
-  <si>
     <t>3255</t>
   </si>
   <si>
     <t>3875</t>
   </si>
   <si>
-    <t>4091</t>
-  </si>
-  <si>
     <t>136</t>
   </si>
   <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
     <t>940</t>
   </si>
   <si>
@@ -238,27 +910,15 @@
     <t>984</t>
   </si>
   <si>
-    <t>988</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
     <t>1048</t>
   </si>
   <si>
     <t>1124</t>
   </si>
   <si>
-    <t>1135</t>
-  </si>
-  <si>
     <t>1148</t>
   </si>
   <si>
@@ -271,21 +931,12 @@
     <t>1306</t>
   </si>
   <si>
-    <t>1312</t>
-  </si>
-  <si>
     <t>1316</t>
   </si>
   <si>
-    <t>1723</t>
-  </si>
-  <si>
     <t>1729</t>
   </si>
   <si>
-    <t>1789</t>
-  </si>
-  <si>
     <t>2182</t>
   </si>
   <si>
@@ -304,9 +955,6 @@
     <t>2820</t>
   </si>
   <si>
-    <t>2834</t>
-  </si>
-  <si>
     <t>2841</t>
   </si>
   <si>
@@ -319,9 +967,6 @@
     <t>2900</t>
   </si>
   <si>
-    <t>3253</t>
-  </si>
-  <si>
     <t>3832</t>
   </si>
   <si>
@@ -334,15 +979,9 @@
     <t>3864</t>
   </si>
   <si>
-    <t>3872</t>
-  </si>
-  <si>
     <t>3874</t>
   </si>
   <si>
-    <t>3879</t>
-  </si>
-  <si>
     <t>4059</t>
   </si>
   <si>
@@ -361,643 +1000,319 @@
     <t>8888</t>
   </si>
   <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>868</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>1238</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1226</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>1344</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>1411</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>1398</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>1559</t>
-  </si>
-  <si>
-    <t>1568</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1577</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>2072</t>
-  </si>
-  <si>
-    <t>2097</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2070</t>
-  </si>
-  <si>
-    <t>1751</t>
-  </si>
-  <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>1759</t>
-  </si>
-  <si>
-    <t>1753</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>1879</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>1875</t>
-  </si>
-  <si>
-    <t>1846</t>
-  </si>
-  <si>
-    <t>1886</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>2340</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>2319</t>
-  </si>
-  <si>
-    <t>2325</t>
-  </si>
-  <si>
-    <t>2338</t>
-  </si>
-  <si>
-    <t>2324</t>
-  </si>
-  <si>
-    <t>2435</t>
-  </si>
-  <si>
-    <t>2434</t>
-  </si>
-  <si>
-    <t>2431</t>
-  </si>
-  <si>
-    <t>2433</t>
-  </si>
-  <si>
-    <t>2421</t>
-  </si>
-  <si>
-    <t>2942</t>
-  </si>
-  <si>
-    <t>2905</t>
-  </si>
-  <si>
-    <t>2934</t>
-  </si>
-  <si>
-    <t>2948</t>
-  </si>
-  <si>
-    <t>2941</t>
-  </si>
-  <si>
-    <t>2965</t>
-  </si>
-  <si>
-    <t>2967</t>
-  </si>
-  <si>
-    <t>2998</t>
-  </si>
-  <si>
-    <t>2959</t>
-  </si>
-  <si>
-    <t>2990</t>
-  </si>
-  <si>
-    <t>2983</t>
-  </si>
-  <si>
-    <t>3042</t>
-  </si>
-  <si>
-    <t>3062</t>
-  </si>
-  <si>
-    <t>3049</t>
-  </si>
-  <si>
-    <t>3031</t>
-  </si>
-  <si>
-    <t>3027</t>
-  </si>
-  <si>
-    <t>3015</t>
-  </si>
-  <si>
-    <t>3148</t>
-  </si>
-  <si>
-    <t>3142</t>
-  </si>
-  <si>
-    <t>3139</t>
-  </si>
-  <si>
-    <t>3073</t>
-  </si>
-  <si>
-    <t>3126</t>
-  </si>
-  <si>
-    <t>3117</t>
-  </si>
-  <si>
-    <t>3336</t>
-  </si>
-  <si>
-    <t>3337</t>
-  </si>
-  <si>
-    <t>3335</t>
-  </si>
-  <si>
-    <t>3338</t>
-  </si>
-  <si>
-    <t>3378</t>
-  </si>
-  <si>
-    <t>3362</t>
-  </si>
-  <si>
-    <t>3444</t>
-  </si>
-  <si>
-    <t>3439</t>
-  </si>
-  <si>
-    <t>3411</t>
-  </si>
-  <si>
-    <t>3383</t>
-  </si>
-  <si>
-    <t>3503</t>
-  </si>
-  <si>
-    <t>3528</t>
-  </si>
-  <si>
-    <t>3506</t>
-  </si>
-  <si>
-    <t>3544</t>
-  </si>
-  <si>
-    <t>3507</t>
-  </si>
-  <si>
-    <t>3529</t>
-  </si>
-  <si>
-    <t>3648</t>
-  </si>
-  <si>
-    <t>3663</t>
-  </si>
-  <si>
-    <t>3705</t>
-  </si>
-  <si>
-    <t>3629</t>
-  </si>
-  <si>
-    <t>3717</t>
-  </si>
-  <si>
-    <t>3692</t>
-  </si>
-  <si>
-    <t>3727</t>
-  </si>
-  <si>
-    <t>3754</t>
-  </si>
-  <si>
-    <t>3762</t>
-  </si>
-  <si>
-    <t>3768</t>
-  </si>
-  <si>
-    <t>3759</t>
-  </si>
-  <si>
-    <t>3792</t>
-  </si>
-  <si>
-    <t>3926</t>
-  </si>
-  <si>
-    <t>3901</t>
-  </si>
-  <si>
-    <t>3909</t>
-  </si>
-  <si>
-    <t>3894</t>
-  </si>
-  <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>3902</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1298</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>1722</t>
-  </si>
-  <si>
-    <t>1693</t>
-  </si>
-  <si>
-    <t>1739</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1688</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1788</t>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>2215</t>
-  </si>
-  <si>
-    <t>2658</t>
-  </si>
-  <si>
-    <t>2629</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>2601</t>
-  </si>
-  <si>
-    <t>2686</t>
-  </si>
-  <si>
-    <t>2808</t>
-  </si>
-  <si>
-    <t>2809</t>
-  </si>
-  <si>
-    <t>2780</t>
-  </si>
-  <si>
-    <t>2767</t>
-  </si>
-  <si>
-    <t>2898</t>
-  </si>
-  <si>
-    <t>2823</t>
-  </si>
-  <si>
-    <t>2875</t>
-  </si>
-  <si>
-    <t>2877</t>
-  </si>
-  <si>
-    <t>2864</t>
-  </si>
-  <si>
-    <t>3302</t>
-  </si>
-  <si>
-    <t>3279</t>
-  </si>
-  <si>
-    <t>3316</t>
-  </si>
-  <si>
-    <t>3324</t>
-  </si>
-  <si>
-    <t>3835</t>
-  </si>
-  <si>
-    <t>3857</t>
-  </si>
-  <si>
-    <t>3868</t>
-  </si>
-  <si>
-    <t>3831</t>
-  </si>
-  <si>
-    <t>4044</t>
-  </si>
-  <si>
-    <t>4025</t>
-  </si>
-  <si>
-    <t>4046</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>4020</t>
-  </si>
-  <si>
-    <t>4015</t>
-  </si>
-  <si>
-    <t>4102</t>
-  </si>
-  <si>
-    <t>4066</t>
-  </si>
-  <si>
-    <t>4075</t>
-  </si>
-  <si>
-    <t>4080</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>3216</t>
-  </si>
-  <si>
-    <t>3186</t>
-  </si>
-  <si>
-    <t>3203</t>
-  </si>
-  <si>
-    <t>3213</t>
-  </si>
-  <si>
-    <t>3220</t>
-  </si>
-  <si>
-    <t>3587</t>
-  </si>
-  <si>
-    <t>3552</t>
-  </si>
-  <si>
-    <t>3563</t>
-  </si>
-  <si>
-    <t>3599</t>
-  </si>
-  <si>
-    <t>3602</t>
-  </si>
-  <si>
-    <t>3603</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>2553</t>
+  </si>
+  <si>
+    <t>2572</t>
+  </si>
+  <si>
+    <t>2589</t>
+  </si>
+  <si>
+    <t>2543</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2538</t>
+  </si>
+  <si>
+    <t>3939</t>
+  </si>
+  <si>
+    <t>3976</t>
+  </si>
+  <si>
+    <t>3935</t>
+  </si>
+  <si>
+    <t>3951</t>
+  </si>
+  <si>
+    <t>3977</t>
+  </si>
+  <si>
+    <t>3974</t>
+  </si>
+  <si>
+    <t>4137</t>
+  </si>
+  <si>
+    <t>4145</t>
+  </si>
+  <si>
+    <t>4192</t>
+  </si>
+  <si>
+    <t>4135</t>
+  </si>
+  <si>
+    <t>4124</t>
+  </si>
+  <si>
+    <t>4122</t>
+  </si>
+  <si>
+    <t>4209</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>4206</t>
+  </si>
+  <si>
+    <t>4212</t>
+  </si>
+  <si>
+    <t>4245</t>
+  </si>
+  <si>
+    <t>4267</t>
+  </si>
+  <si>
+    <t>4265</t>
+  </si>
+  <si>
+    <t>4278</t>
+  </si>
+  <si>
+    <t>4268</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>4282</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2247</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>2266</t>
+  </si>
+  <si>
+    <t>2477</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>2479</t>
+  </si>
+  <si>
+    <t>2459</t>
+  </si>
+  <si>
+    <t>2451</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>2693</t>
+  </si>
+  <si>
+    <t>2708</t>
+  </si>
+  <si>
+    <t>2723</t>
+  </si>
+  <si>
+    <t>2719</t>
+  </si>
+  <si>
+    <t>2722</t>
+  </si>
+  <si>
+    <t>2744</t>
   </si>
   <si>
     <t>2904</t>
@@ -1165,9 +1480,6 @@
     <t>1596</t>
   </si>
   <si>
-    <t>4248</t>
-  </si>
-  <si>
     <t>4252</t>
   </si>
   <si>
@@ -1198,9 +1510,6 @@
     <t>1484</t>
   </si>
   <si>
-    <t>4192</t>
-  </si>
-  <si>
     <t>4198</t>
   </si>
   <si>
@@ -1246,9 +1555,6 @@
     <t>4324</t>
   </si>
   <si>
-    <t>4245</t>
-  </si>
-  <si>
     <t>1176</t>
   </si>
   <si>
@@ -1274,312 +1580,6 @@
   </si>
   <si>
     <t>3711</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>1639</t>
-  </si>
-  <si>
-    <t>1615</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>2553</t>
-  </si>
-  <si>
-    <t>2572</t>
-  </si>
-  <si>
-    <t>2589</t>
-  </si>
-  <si>
-    <t>2543</t>
-  </si>
-  <si>
-    <t>2590</t>
-  </si>
-  <si>
-    <t>2538</t>
-  </si>
-  <si>
-    <t>3939</t>
-  </si>
-  <si>
-    <t>3976</t>
-  </si>
-  <si>
-    <t>3935</t>
-  </si>
-  <si>
-    <t>3951</t>
-  </si>
-  <si>
-    <t>3977</t>
-  </si>
-  <si>
-    <t>3974</t>
-  </si>
-  <si>
-    <t>4137</t>
-  </si>
-  <si>
-    <t>4145</t>
-  </si>
-  <si>
-    <t>4135</t>
-  </si>
-  <si>
-    <t>4124</t>
-  </si>
-  <si>
-    <t>4122</t>
-  </si>
-  <si>
-    <t>4209</t>
-  </si>
-  <si>
-    <t>4200</t>
-  </si>
-  <si>
-    <t>4206</t>
-  </si>
-  <si>
-    <t>4212</t>
-  </si>
-  <si>
-    <t>4267</t>
-  </si>
-  <si>
-    <t>4265</t>
-  </si>
-  <si>
-    <t>4278</t>
-  </si>
-  <si>
-    <t>4268</t>
-  </si>
-  <si>
-    <t>4285</t>
-  </si>
-  <si>
-    <t>4282</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>2247</t>
-  </si>
-  <si>
-    <t>2281</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>2269</t>
-  </si>
-  <si>
-    <t>2251</t>
-  </si>
-  <si>
-    <t>2266</t>
-  </si>
-  <si>
-    <t>2477</t>
-  </si>
-  <si>
-    <t>2472</t>
-  </si>
-  <si>
-    <t>2479</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>2451</t>
-  </si>
-  <si>
-    <t>2487</t>
-  </si>
-  <si>
-    <t>2693</t>
-  </si>
-  <si>
-    <t>2708</t>
-  </si>
-  <si>
-    <t>2723</t>
-  </si>
-  <si>
-    <t>2719</t>
-  </si>
-  <si>
-    <t>2722</t>
-  </si>
-  <si>
-    <t>2744</t>
   </si>
   <si>
     <t>expert</t>
@@ -3680,8 +3680,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>115</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>522</v>
@@ -3709,8 +3709,8 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>116</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>522</v>
@@ -3738,8 +3738,8 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>117</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>522</v>
@@ -3767,8 +3767,8 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>118</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>522</v>
@@ -3796,8 +3796,8 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>119</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>522</v>
@@ -3825,8 +3825,8 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>522</v>
@@ -3854,8 +3854,8 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>121</v>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>522</v>
@@ -3883,8 +3883,8 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>122</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>522</v>
@@ -3912,8 +3912,8 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>123</v>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>523</v>
@@ -3941,8 +3941,8 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>124</v>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>523</v>
@@ -3970,8 +3970,8 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>125</v>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>523</v>
@@ -3999,8 +3999,8 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>126</v>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>523</v>
@@ -4028,8 +4028,8 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>127</v>
+      <c r="B14" t="s">
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>523</v>
@@ -4057,8 +4057,8 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>128</v>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>522</v>
@@ -4086,8 +4086,8 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>129</v>
+      <c r="B16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>522</v>
@@ -4115,8 +4115,8 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>130</v>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>523</v>
@@ -4144,8 +4144,8 @@
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>131</v>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>522</v>
@@ -4173,8 +4173,8 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>523</v>
@@ -4202,8 +4202,8 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>133</v>
+      <c r="B20" t="s">
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>522</v>
@@ -4231,8 +4231,8 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>134</v>
+      <c r="B21" t="s">
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>522</v>
@@ -4260,8 +4260,8 @@
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
-        <v>135</v>
+      <c r="B22" t="s">
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>522</v>
@@ -4289,8 +4289,8 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>136</v>
+      <c r="B23" t="s">
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>522</v>
@@ -4318,8 +4318,8 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>137</v>
+      <c r="B24" t="s">
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>522</v>
@@ -4347,8 +4347,8 @@
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>138</v>
+      <c r="B25" t="s">
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>522</v>
@@ -4376,8 +4376,8 @@
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>139</v>
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>522</v>
@@ -4405,8 +4405,8 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
-        <v>140</v>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>522</v>
@@ -4434,8 +4434,8 @@
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>141</v>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>522</v>
@@ -4463,8 +4463,8 @@
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>142</v>
+      <c r="B29" t="s">
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>522</v>
@@ -4492,8 +4492,8 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>143</v>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>523</v>
@@ -4521,8 +4521,8 @@
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
-        <v>144</v>
+      <c r="B31" t="s">
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>522</v>
@@ -4550,8 +4550,8 @@
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
-        <v>145</v>
+      <c r="B32" t="s">
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>522</v>
@@ -4579,8 +4579,8 @@
       <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
-        <v>146</v>
+      <c r="B33" t="s">
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>522</v>
@@ -4608,8 +4608,8 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
-        <v>147</v>
+      <c r="B34" t="s">
+        <v>44</v>
       </c>
       <c r="D34" t="s">
         <v>522</v>
@@ -4637,8 +4637,8 @@
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
-        <v>148</v>
+      <c r="B35" t="s">
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>522</v>
@@ -4666,8 +4666,8 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
-        <v>149</v>
+      <c r="B36" t="s">
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>522</v>
@@ -4695,8 +4695,8 @@
       <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>20</v>
+      <c r="B37" t="s">
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>523</v>
@@ -4724,8 +4724,8 @@
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>150</v>
+      <c r="B38" t="s">
+        <v>48</v>
       </c>
       <c r="D38" t="s">
         <v>522</v>
@@ -4753,8 +4753,8 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>151</v>
+      <c r="B39" t="s">
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>523</v>
@@ -4782,8 +4782,8 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>152</v>
+      <c r="B40" t="s">
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>522</v>
@@ -4811,8 +4811,8 @@
       <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>153</v>
+      <c r="B41" t="s">
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>523</v>
@@ -4840,8 +4840,8 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
-        <v>154</v>
+      <c r="B42" t="s">
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>522</v>
@@ -4869,8 +4869,8 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>155</v>
+      <c r="B43" t="s">
+        <v>53</v>
       </c>
       <c r="D43" t="s">
         <v>522</v>
@@ -4898,8 +4898,8 @@
       <c r="A44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
-        <v>156</v>
+      <c r="B44" t="s">
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>522</v>
@@ -4927,8 +4927,8 @@
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
-        <v>157</v>
+      <c r="B45" t="s">
+        <v>55</v>
       </c>
       <c r="D45" t="s">
         <v>523</v>
@@ -4956,8 +4956,8 @@
       <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="s">
-        <v>158</v>
+      <c r="B46" t="s">
+        <v>56</v>
       </c>
       <c r="D46" t="s">
         <v>522</v>
@@ -4985,8 +4985,8 @@
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
-        <v>159</v>
+      <c r="B47" t="s">
+        <v>57</v>
       </c>
       <c r="D47" t="s">
         <v>522</v>
@@ -5014,8 +5014,8 @@
       <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
-        <v>160</v>
+      <c r="B48" t="s">
+        <v>58</v>
       </c>
       <c r="D48" t="s">
         <v>522</v>
@@ -5043,8 +5043,8 @@
       <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" t="s">
-        <v>161</v>
+      <c r="B49" t="s">
+        <v>59</v>
       </c>
       <c r="D49" t="s">
         <v>522</v>
@@ -5072,8 +5072,8 @@
       <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="s">
-        <v>162</v>
+      <c r="B50" t="s">
+        <v>60</v>
       </c>
       <c r="D50" t="s">
         <v>522</v>
@@ -5101,8 +5101,8 @@
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="s">
-        <v>163</v>
+      <c r="B51" t="s">
+        <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>522</v>
@@ -5130,8 +5130,8 @@
       <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="C52" t="s">
-        <v>164</v>
+      <c r="B52" t="s">
+        <v>62</v>
       </c>
       <c r="D52" t="s">
         <v>522</v>
@@ -5159,8 +5159,8 @@
       <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" t="s">
-        <v>165</v>
+      <c r="B53" t="s">
+        <v>63</v>
       </c>
       <c r="D53" t="s">
         <v>522</v>
@@ -5188,8 +5188,8 @@
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="C54" t="s">
-        <v>166</v>
+      <c r="B54" t="s">
+        <v>64</v>
       </c>
       <c r="D54" t="s">
         <v>522</v>
@@ -5217,8 +5217,8 @@
       <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="s">
-        <v>167</v>
+      <c r="B55" t="s">
+        <v>65</v>
       </c>
       <c r="D55" t="s">
         <v>522</v>
@@ -5246,8 +5246,8 @@
       <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="s">
-        <v>168</v>
+      <c r="B56" t="s">
+        <v>66</v>
       </c>
       <c r="D56" t="s">
         <v>522</v>
@@ -5275,8 +5275,8 @@
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="C57" t="s">
-        <v>169</v>
+      <c r="B57" t="s">
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>522</v>
@@ -5304,8 +5304,8 @@
       <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="C58" t="s">
-        <v>170</v>
+      <c r="B58" t="s">
+        <v>68</v>
       </c>
       <c r="D58" t="s">
         <v>522</v>
@@ -5333,8 +5333,8 @@
       <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
-        <v>171</v>
+      <c r="B59" t="s">
+        <v>69</v>
       </c>
       <c r="D59" t="s">
         <v>522</v>
@@ -5362,8 +5362,8 @@
       <c r="A60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
-        <v>172</v>
+      <c r="B60" t="s">
+        <v>70</v>
       </c>
       <c r="D60" t="s">
         <v>522</v>
@@ -5391,8 +5391,8 @@
       <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" t="s">
-        <v>173</v>
+      <c r="B61" t="s">
+        <v>71</v>
       </c>
       <c r="D61" t="s">
         <v>522</v>
@@ -5420,8 +5420,8 @@
       <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" t="s">
-        <v>174</v>
+      <c r="B62" t="s">
+        <v>72</v>
       </c>
       <c r="D62" t="s">
         <v>523</v>
@@ -5449,8 +5449,8 @@
       <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="s">
-        <v>175</v>
+      <c r="B63" t="s">
+        <v>73</v>
       </c>
       <c r="D63" t="s">
         <v>523</v>
@@ -5478,8 +5478,8 @@
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s">
-        <v>176</v>
+      <c r="B64" t="s">
+        <v>74</v>
       </c>
       <c r="D64" t="s">
         <v>523</v>
@@ -5507,8 +5507,8 @@
       <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
-        <v>21</v>
+      <c r="B65" t="s">
+        <v>75</v>
       </c>
       <c r="D65" t="s">
         <v>523</v>
@@ -5536,8 +5536,8 @@
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="C66" t="s">
-        <v>177</v>
+      <c r="B66" t="s">
+        <v>76</v>
       </c>
       <c r="D66" t="s">
         <v>523</v>
@@ -5565,8 +5565,8 @@
       <c r="A67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" t="s">
-        <v>178</v>
+      <c r="B67" t="s">
+        <v>77</v>
       </c>
       <c r="D67" t="s">
         <v>523</v>
@@ -5594,8 +5594,8 @@
       <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
-        <v>33</v>
+      <c r="B68" t="s">
+        <v>78</v>
       </c>
       <c r="D68" t="s">
         <v>523</v>
@@ -5623,8 +5623,8 @@
       <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" t="s">
-        <v>179</v>
+      <c r="B69" t="s">
+        <v>79</v>
       </c>
       <c r="D69" t="s">
         <v>523</v>
@@ -5652,8 +5652,8 @@
       <c r="A70" t="s">
         <v>10</v>
       </c>
-      <c r="C70" t="s">
-        <v>180</v>
+      <c r="B70" t="s">
+        <v>80</v>
       </c>
       <c r="D70" t="s">
         <v>522</v>
@@ -5681,8 +5681,8 @@
       <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
-        <v>181</v>
+      <c r="B71" t="s">
+        <v>81</v>
       </c>
       <c r="D71" t="s">
         <v>523</v>
@@ -5710,8 +5710,8 @@
       <c r="A72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
-        <v>182</v>
+      <c r="B72" t="s">
+        <v>82</v>
       </c>
       <c r="D72" t="s">
         <v>523</v>
@@ -5739,8 +5739,8 @@
       <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="C73" t="s">
-        <v>183</v>
+      <c r="B73" t="s">
+        <v>83</v>
       </c>
       <c r="D73" t="s">
         <v>523</v>
@@ -5768,8 +5768,8 @@
       <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="C74" t="s">
-        <v>184</v>
+      <c r="B74" t="s">
+        <v>84</v>
       </c>
       <c r="D74" t="s">
         <v>522</v>
@@ -5797,8 +5797,8 @@
       <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" t="s">
-        <v>185</v>
+      <c r="B75" t="s">
+        <v>85</v>
       </c>
       <c r="D75" t="s">
         <v>522</v>
@@ -5826,8 +5826,8 @@
       <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="C76" t="s">
-        <v>186</v>
+      <c r="B76" t="s">
+        <v>86</v>
       </c>
       <c r="D76" t="s">
         <v>523</v>
@@ -5855,8 +5855,8 @@
       <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" t="s">
-        <v>187</v>
+      <c r="B77" t="s">
+        <v>87</v>
       </c>
       <c r="D77" t="s">
         <v>522</v>
@@ -5884,8 +5884,8 @@
       <c r="A78" t="s">
         <v>10</v>
       </c>
-      <c r="C78" t="s">
-        <v>188</v>
+      <c r="B78" t="s">
+        <v>88</v>
       </c>
       <c r="D78" t="s">
         <v>523</v>
@@ -5913,8 +5913,8 @@
       <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
-        <v>189</v>
+      <c r="B79" t="s">
+        <v>89</v>
       </c>
       <c r="D79" t="s">
         <v>523</v>
@@ -5942,8 +5942,8 @@
       <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="C80" t="s">
-        <v>190</v>
+      <c r="B80" t="s">
+        <v>90</v>
       </c>
       <c r="D80" t="s">
         <v>523</v>
@@ -5971,8 +5971,8 @@
       <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="C81" t="s">
-        <v>191</v>
+      <c r="B81" t="s">
+        <v>91</v>
       </c>
       <c r="D81" t="s">
         <v>523</v>
@@ -6000,8 +6000,8 @@
       <c r="A82" t="s">
         <v>10</v>
       </c>
-      <c r="C82" t="s">
-        <v>192</v>
+      <c r="B82" t="s">
+        <v>92</v>
       </c>
       <c r="D82" t="s">
         <v>523</v>
@@ -6029,8 +6029,8 @@
       <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="C83" t="s">
-        <v>193</v>
+      <c r="B83" t="s">
+        <v>93</v>
       </c>
       <c r="D83" t="s">
         <v>522</v>
@@ -6058,8 +6058,8 @@
       <c r="A84" t="s">
         <v>10</v>
       </c>
-      <c r="C84" t="s">
-        <v>194</v>
+      <c r="B84" t="s">
+        <v>94</v>
       </c>
       <c r="D84" t="s">
         <v>522</v>
@@ -6087,8 +6087,8 @@
       <c r="A85" t="s">
         <v>10</v>
       </c>
-      <c r="C85" t="s">
-        <v>195</v>
+      <c r="B85" t="s">
+        <v>95</v>
       </c>
       <c r="D85" t="s">
         <v>522</v>
@@ -6116,8 +6116,8 @@
       <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="C86" t="s">
-        <v>196</v>
+      <c r="B86" t="s">
+        <v>96</v>
       </c>
       <c r="D86" t="s">
         <v>522</v>
@@ -6145,8 +6145,8 @@
       <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="C87" t="s">
-        <v>197</v>
+      <c r="B87" t="s">
+        <v>97</v>
       </c>
       <c r="D87" t="s">
         <v>522</v>
@@ -6174,8 +6174,8 @@
       <c r="A88" t="s">
         <v>10</v>
       </c>
-      <c r="C88" t="s">
-        <v>198</v>
+      <c r="B88" t="s">
+        <v>98</v>
       </c>
       <c r="D88" t="s">
         <v>522</v>
@@ -6203,8 +6203,8 @@
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
-        <v>199</v>
+      <c r="B89" t="s">
+        <v>99</v>
       </c>
       <c r="D89" t="s">
         <v>522</v>
@@ -6232,8 +6232,8 @@
       <c r="A90" t="s">
         <v>10</v>
       </c>
-      <c r="C90" t="s">
-        <v>200</v>
+      <c r="B90" t="s">
+        <v>100</v>
       </c>
       <c r="D90" t="s">
         <v>522</v>
@@ -6261,8 +6261,8 @@
       <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
-        <v>201</v>
+      <c r="B91" t="s">
+        <v>101</v>
       </c>
       <c r="D91" t="s">
         <v>522</v>
@@ -6290,8 +6290,8 @@
       <c r="A92" t="s">
         <v>10</v>
       </c>
-      <c r="C92" t="s">
-        <v>202</v>
+      <c r="B92" t="s">
+        <v>102</v>
       </c>
       <c r="D92" t="s">
         <v>522</v>
@@ -6319,8 +6319,8 @@
       <c r="A93" t="s">
         <v>10</v>
       </c>
-      <c r="C93" t="s">
-        <v>203</v>
+      <c r="B93" t="s">
+        <v>103</v>
       </c>
       <c r="D93" t="s">
         <v>522</v>
@@ -6348,8 +6348,8 @@
       <c r="A94" t="s">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
-        <v>204</v>
+      <c r="B94" t="s">
+        <v>104</v>
       </c>
       <c r="D94" t="s">
         <v>522</v>
@@ -6377,8 +6377,8 @@
       <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="C95" t="s">
-        <v>205</v>
+      <c r="B95" t="s">
+        <v>105</v>
       </c>
       <c r="D95" t="s">
         <v>522</v>
@@ -6406,8 +6406,8 @@
       <c r="A96" t="s">
         <v>10</v>
       </c>
-      <c r="C96" t="s">
-        <v>206</v>
+      <c r="B96" t="s">
+        <v>106</v>
       </c>
       <c r="D96" t="s">
         <v>523</v>
@@ -6435,8 +6435,8 @@
       <c r="A97" t="s">
         <v>10</v>
       </c>
-      <c r="C97" t="s">
-        <v>207</v>
+      <c r="B97" t="s">
+        <v>107</v>
       </c>
       <c r="D97" t="s">
         <v>523</v>
@@ -6464,8 +6464,8 @@
       <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="C98" t="s">
-        <v>208</v>
+      <c r="B98" t="s">
+        <v>108</v>
       </c>
       <c r="D98" t="s">
         <v>522</v>
@@ -6493,8 +6493,8 @@
       <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" t="s">
-        <v>209</v>
+      <c r="B99" t="s">
+        <v>109</v>
       </c>
       <c r="D99" t="s">
         <v>522</v>
@@ -6522,8 +6522,8 @@
       <c r="A100" t="s">
         <v>10</v>
       </c>
-      <c r="C100" t="s">
-        <v>210</v>
+      <c r="B100" t="s">
+        <v>110</v>
       </c>
       <c r="D100" t="s">
         <v>522</v>
@@ -6551,8 +6551,8 @@
       <c r="A101" t="s">
         <v>10</v>
       </c>
-      <c r="C101" t="s">
-        <v>211</v>
+      <c r="B101" t="s">
+        <v>111</v>
       </c>
       <c r="D101" t="s">
         <v>522</v>
@@ -6580,8 +6580,8 @@
       <c r="A102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" t="s">
-        <v>212</v>
+      <c r="B102" t="s">
+        <v>112</v>
       </c>
       <c r="D102" t="s">
         <v>522</v>
@@ -6609,8 +6609,8 @@
       <c r="A103" t="s">
         <v>10</v>
       </c>
-      <c r="C103" t="s">
-        <v>213</v>
+      <c r="B103" t="s">
+        <v>113</v>
       </c>
       <c r="D103" t="s">
         <v>523</v>
@@ -6638,8 +6638,8 @@
       <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="C104" t="s">
-        <v>214</v>
+      <c r="B104" t="s">
+        <v>114</v>
       </c>
       <c r="D104" t="s">
         <v>522</v>
@@ -6667,8 +6667,8 @@
       <c r="A105" t="s">
         <v>10</v>
       </c>
-      <c r="C105" t="s">
-        <v>215</v>
+      <c r="B105" t="s">
+        <v>115</v>
       </c>
       <c r="D105" t="s">
         <v>523</v>
@@ -6696,8 +6696,8 @@
       <c r="A106" t="s">
         <v>10</v>
       </c>
-      <c r="C106" t="s">
-        <v>216</v>
+      <c r="B106" t="s">
+        <v>116</v>
       </c>
       <c r="D106" t="s">
         <v>522</v>
@@ -6725,8 +6725,8 @@
       <c r="A107" t="s">
         <v>10</v>
       </c>
-      <c r="C107" t="s">
-        <v>217</v>
+      <c r="B107" t="s">
+        <v>117</v>
       </c>
       <c r="D107" t="s">
         <v>523</v>
@@ -6754,8 +6754,8 @@
       <c r="A108" t="s">
         <v>10</v>
       </c>
-      <c r="C108" t="s">
-        <v>218</v>
+      <c r="B108" t="s">
+        <v>118</v>
       </c>
       <c r="D108" t="s">
         <v>522</v>
@@ -6783,8 +6783,8 @@
       <c r="A109" t="s">
         <v>10</v>
       </c>
-      <c r="C109" t="s">
-        <v>219</v>
+      <c r="B109" t="s">
+        <v>119</v>
       </c>
       <c r="D109" t="s">
         <v>522</v>
@@ -6812,8 +6812,8 @@
       <c r="A110" t="s">
         <v>10</v>
       </c>
-      <c r="C110" t="s">
-        <v>220</v>
+      <c r="B110" t="s">
+        <v>120</v>
       </c>
       <c r="D110" t="s">
         <v>523</v>
@@ -6841,8 +6841,8 @@
       <c r="A111" t="s">
         <v>10</v>
       </c>
-      <c r="C111" t="s">
-        <v>221</v>
+      <c r="B111" t="s">
+        <v>121</v>
       </c>
       <c r="D111" t="s">
         <v>522</v>
@@ -6870,8 +6870,8 @@
       <c r="A112" t="s">
         <v>10</v>
       </c>
-      <c r="C112" t="s">
-        <v>222</v>
+      <c r="B112" t="s">
+        <v>122</v>
       </c>
       <c r="D112" t="s">
         <v>523</v>
@@ -6899,8 +6899,8 @@
       <c r="A113" t="s">
         <v>10</v>
       </c>
-      <c r="C113" t="s">
-        <v>223</v>
+      <c r="B113" t="s">
+        <v>123</v>
       </c>
       <c r="D113" t="s">
         <v>523</v>
@@ -6928,8 +6928,8 @@
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="C114" t="s">
-        <v>224</v>
+      <c r="B114" t="s">
+        <v>124</v>
       </c>
       <c r="D114" t="s">
         <v>522</v>
@@ -6957,8 +6957,8 @@
       <c r="A115" t="s">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
-        <v>225</v>
+      <c r="B115" t="s">
+        <v>125</v>
       </c>
       <c r="D115" t="s">
         <v>522</v>
@@ -6986,8 +6986,8 @@
       <c r="A116" t="s">
         <v>10</v>
       </c>
-      <c r="C116" t="s">
-        <v>226</v>
+      <c r="B116" t="s">
+        <v>126</v>
       </c>
       <c r="D116" t="s">
         <v>522</v>
@@ -7015,8 +7015,8 @@
       <c r="A117" t="s">
         <v>10</v>
       </c>
-      <c r="C117" t="s">
-        <v>227</v>
+      <c r="B117" t="s">
+        <v>127</v>
       </c>
       <c r="D117" t="s">
         <v>522</v>
@@ -7044,8 +7044,8 @@
       <c r="A118" t="s">
         <v>10</v>
       </c>
-      <c r="C118" t="s">
-        <v>228</v>
+      <c r="B118" t="s">
+        <v>128</v>
       </c>
       <c r="D118" t="s">
         <v>522</v>
@@ -7073,8 +7073,8 @@
       <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="C119" t="s">
-        <v>229</v>
+      <c r="B119" t="s">
+        <v>129</v>
       </c>
       <c r="D119" t="s">
         <v>522</v>
@@ -7102,8 +7102,8 @@
       <c r="A120" t="s">
         <v>10</v>
       </c>
-      <c r="C120" t="s">
-        <v>230</v>
+      <c r="B120" t="s">
+        <v>130</v>
       </c>
       <c r="D120" t="s">
         <v>523</v>
@@ -7131,8 +7131,8 @@
       <c r="A121" t="s">
         <v>10</v>
       </c>
-      <c r="C121" t="s">
-        <v>231</v>
+      <c r="B121" t="s">
+        <v>131</v>
       </c>
       <c r="D121" t="s">
         <v>523</v>
@@ -7160,8 +7160,8 @@
       <c r="A122" t="s">
         <v>10</v>
       </c>
-      <c r="C122" t="s">
-        <v>232</v>
+      <c r="B122" t="s">
+        <v>132</v>
       </c>
       <c r="D122" t="s">
         <v>523</v>
@@ -7189,8 +7189,8 @@
       <c r="A123" t="s">
         <v>10</v>
       </c>
-      <c r="C123" t="s">
-        <v>233</v>
+      <c r="B123" t="s">
+        <v>133</v>
       </c>
       <c r="D123" t="s">
         <v>522</v>
@@ -7218,8 +7218,8 @@
       <c r="A124" t="s">
         <v>10</v>
       </c>
-      <c r="C124" t="s">
-        <v>234</v>
+      <c r="B124" t="s">
+        <v>134</v>
       </c>
       <c r="D124" t="s">
         <v>522</v>
@@ -7247,8 +7247,8 @@
       <c r="A125" t="s">
         <v>10</v>
       </c>
-      <c r="C125" t="s">
-        <v>235</v>
+      <c r="B125" t="s">
+        <v>135</v>
       </c>
       <c r="D125" t="s">
         <v>523</v>
@@ -7276,8 +7276,8 @@
       <c r="A126" t="s">
         <v>10</v>
       </c>
-      <c r="C126" t="s">
-        <v>236</v>
+      <c r="B126" t="s">
+        <v>136</v>
       </c>
       <c r="D126" t="s">
         <v>523</v>
@@ -7305,8 +7305,8 @@
       <c r="A127" t="s">
         <v>10</v>
       </c>
-      <c r="C127" t="s">
-        <v>237</v>
+      <c r="B127" t="s">
+        <v>137</v>
       </c>
       <c r="D127" t="s">
         <v>523</v>
@@ -7334,8 +7334,8 @@
       <c r="A128" t="s">
         <v>10</v>
       </c>
-      <c r="C128" t="s">
-        <v>238</v>
+      <c r="B128" t="s">
+        <v>138</v>
       </c>
       <c r="D128" t="s">
         <v>522</v>
@@ -7363,8 +7363,8 @@
       <c r="A129" t="s">
         <v>10</v>
       </c>
-      <c r="C129" t="s">
-        <v>36</v>
+      <c r="B129" t="s">
+        <v>139</v>
       </c>
       <c r="D129" t="s">
         <v>523</v>
@@ -7392,8 +7392,8 @@
       <c r="A130" t="s">
         <v>10</v>
       </c>
-      <c r="C130" t="s">
-        <v>34</v>
+      <c r="B130" t="s">
+        <v>140</v>
       </c>
       <c r="D130" t="s">
         <v>522</v>
@@ -7421,8 +7421,8 @@
       <c r="A131" t="s">
         <v>10</v>
       </c>
-      <c r="C131" t="s">
-        <v>239</v>
+      <c r="B131" t="s">
+        <v>141</v>
       </c>
       <c r="D131" t="s">
         <v>522</v>
@@ -7450,8 +7450,8 @@
       <c r="A132" t="s">
         <v>10</v>
       </c>
-      <c r="C132" t="s">
-        <v>240</v>
+      <c r="B132" t="s">
+        <v>142</v>
       </c>
       <c r="D132" t="s">
         <v>523</v>
@@ -7479,8 +7479,8 @@
       <c r="A133" t="s">
         <v>10</v>
       </c>
-      <c r="C133" t="s">
-        <v>241</v>
+      <c r="B133" t="s">
+        <v>143</v>
       </c>
       <c r="D133" t="s">
         <v>522</v>
@@ -7508,8 +7508,8 @@
       <c r="A134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" t="s">
-        <v>242</v>
+      <c r="B134" t="s">
+        <v>144</v>
       </c>
       <c r="D134" t="s">
         <v>523</v>
@@ -7537,8 +7537,8 @@
       <c r="A135" t="s">
         <v>10</v>
       </c>
-      <c r="C135" t="s">
-        <v>243</v>
+      <c r="B135" t="s">
+        <v>145</v>
       </c>
       <c r="D135" t="s">
         <v>523</v>
@@ -7566,8 +7566,8 @@
       <c r="A136" t="s">
         <v>10</v>
       </c>
-      <c r="C136" t="s">
-        <v>244</v>
+      <c r="B136" t="s">
+        <v>146</v>
       </c>
       <c r="D136" t="s">
         <v>522</v>
@@ -7595,8 +7595,8 @@
       <c r="A137" t="s">
         <v>10</v>
       </c>
-      <c r="C137" t="s">
-        <v>245</v>
+      <c r="B137" t="s">
+        <v>147</v>
       </c>
       <c r="D137" t="s">
         <v>522</v>
@@ -7624,8 +7624,8 @@
       <c r="A138" t="s">
         <v>10</v>
       </c>
-      <c r="C138" t="s">
-        <v>68</v>
+      <c r="B138" t="s">
+        <v>148</v>
       </c>
       <c r="D138" t="s">
         <v>522</v>
@@ -7653,8 +7653,8 @@
       <c r="A139" t="s">
         <v>10</v>
       </c>
-      <c r="C139" t="s">
-        <v>67</v>
+      <c r="B139" t="s">
+        <v>149</v>
       </c>
       <c r="D139" t="s">
         <v>522</v>
@@ -7682,8 +7682,8 @@
       <c r="A140" t="s">
         <v>10</v>
       </c>
-      <c r="C140" t="s">
-        <v>246</v>
+      <c r="B140" t="s">
+        <v>150</v>
       </c>
       <c r="D140" t="s">
         <v>522</v>
@@ -7711,8 +7711,8 @@
       <c r="A141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" t="s">
-        <v>247</v>
+      <c r="B141" t="s">
+        <v>151</v>
       </c>
       <c r="D141" t="s">
         <v>523</v>
@@ -7740,8 +7740,8 @@
       <c r="A142" t="s">
         <v>10</v>
       </c>
-      <c r="C142" t="s">
-        <v>248</v>
+      <c r="B142" t="s">
+        <v>152</v>
       </c>
       <c r="D142" t="s">
         <v>522</v>
@@ -7769,8 +7769,8 @@
       <c r="A143" t="s">
         <v>10</v>
       </c>
-      <c r="C143" t="s">
-        <v>249</v>
+      <c r="B143" t="s">
+        <v>153</v>
       </c>
       <c r="D143" t="s">
         <v>523</v>
@@ -7798,8 +7798,8 @@
       <c r="A144" t="s">
         <v>10</v>
       </c>
-      <c r="C144" t="s">
-        <v>250</v>
+      <c r="B144" t="s">
+        <v>154</v>
       </c>
       <c r="D144" t="s">
         <v>522</v>
@@ -7827,8 +7827,8 @@
       <c r="A145" t="s">
         <v>10</v>
       </c>
-      <c r="C145" t="s">
-        <v>251</v>
+      <c r="B145" t="s">
+        <v>155</v>
       </c>
       <c r="D145" t="s">
         <v>523</v>
@@ -7856,8 +7856,8 @@
       <c r="A146" t="s">
         <v>10</v>
       </c>
-      <c r="C146" t="s">
-        <v>252</v>
+      <c r="B146" t="s">
+        <v>156</v>
       </c>
       <c r="D146" t="s">
         <v>523</v>
@@ -7885,8 +7885,8 @@
       <c r="A147" t="s">
         <v>10</v>
       </c>
-      <c r="C147" t="s">
-        <v>38</v>
+      <c r="B147" t="s">
+        <v>157</v>
       </c>
       <c r="D147" t="s">
         <v>523</v>
@@ -7914,8 +7914,8 @@
       <c r="A148" t="s">
         <v>10</v>
       </c>
-      <c r="C148" t="s">
-        <v>37</v>
+      <c r="B148" t="s">
+        <v>158</v>
       </c>
       <c r="D148" t="s">
         <v>522</v>
@@ -7943,8 +7943,8 @@
       <c r="A149" t="s">
         <v>10</v>
       </c>
-      <c r="C149" t="s">
-        <v>253</v>
+      <c r="B149" t="s">
+        <v>159</v>
       </c>
       <c r="D149" t="s">
         <v>523</v>
@@ -7972,8 +7972,8 @@
       <c r="A150" t="s">
         <v>10</v>
       </c>
-      <c r="C150" t="s">
-        <v>254</v>
+      <c r="B150" t="s">
+        <v>160</v>
       </c>
       <c r="D150" t="s">
         <v>522</v>
@@ -8001,8 +8001,8 @@
       <c r="A151" t="s">
         <v>10</v>
       </c>
-      <c r="C151" t="s">
-        <v>255</v>
+      <c r="B151" t="s">
+        <v>161</v>
       </c>
       <c r="D151" t="s">
         <v>522</v>
@@ -8030,8 +8030,8 @@
       <c r="A152" t="s">
         <v>10</v>
       </c>
-      <c r="C152" t="s">
-        <v>74</v>
+      <c r="B152" t="s">
+        <v>162</v>
       </c>
       <c r="D152" t="s">
         <v>523</v>
@@ -8059,8 +8059,8 @@
       <c r="A153" t="s">
         <v>10</v>
       </c>
-      <c r="C153" t="s">
-        <v>39</v>
+      <c r="B153" t="s">
+        <v>163</v>
       </c>
       <c r="D153" t="s">
         <v>522</v>
@@ -8088,8 +8088,8 @@
       <c r="A154" t="s">
         <v>10</v>
       </c>
-      <c r="C154" t="s">
-        <v>256</v>
+      <c r="B154" t="s">
+        <v>164</v>
       </c>
       <c r="D154" t="s">
         <v>522</v>
@@ -8117,8 +8117,8 @@
       <c r="A155" t="s">
         <v>10</v>
       </c>
-      <c r="C155" t="s">
-        <v>40</v>
+      <c r="B155" t="s">
+        <v>165</v>
       </c>
       <c r="D155" t="s">
         <v>522</v>
@@ -8146,8 +8146,8 @@
       <c r="A156" t="s">
         <v>10</v>
       </c>
-      <c r="C156" t="s">
-        <v>76</v>
+      <c r="B156" t="s">
+        <v>166</v>
       </c>
       <c r="D156" t="s">
         <v>523</v>
@@ -8175,8 +8175,8 @@
       <c r="A157" t="s">
         <v>10</v>
       </c>
-      <c r="C157" t="s">
-        <v>257</v>
+      <c r="B157" t="s">
+        <v>167</v>
       </c>
       <c r="D157" t="s">
         <v>522</v>
@@ -8204,8 +8204,8 @@
       <c r="A158" t="s">
         <v>10</v>
       </c>
-      <c r="C158" t="s">
-        <v>77</v>
+      <c r="B158" t="s">
+        <v>168</v>
       </c>
       <c r="D158" t="s">
         <v>523</v>
@@ -8233,8 +8233,8 @@
       <c r="A159" t="s">
         <v>10</v>
       </c>
-      <c r="C159" t="s">
-        <v>258</v>
+      <c r="B159" t="s">
+        <v>169</v>
       </c>
       <c r="D159" t="s">
         <v>522</v>
@@ -8262,8 +8262,8 @@
       <c r="A160" t="s">
         <v>10</v>
       </c>
-      <c r="C160" t="s">
-        <v>259</v>
+      <c r="B160" t="s">
+        <v>170</v>
       </c>
       <c r="D160" t="s">
         <v>522</v>
@@ -8291,8 +8291,8 @@
       <c r="A161" t="s">
         <v>10</v>
       </c>
-      <c r="C161" t="s">
-        <v>260</v>
+      <c r="B161" t="s">
+        <v>171</v>
       </c>
       <c r="D161" t="s">
         <v>523</v>
@@ -8320,8 +8320,8 @@
       <c r="A162" t="s">
         <v>10</v>
       </c>
-      <c r="C162" t="s">
-        <v>80</v>
+      <c r="B162" t="s">
+        <v>172</v>
       </c>
       <c r="D162" t="s">
         <v>522</v>
@@ -8349,8 +8349,8 @@
       <c r="A163" t="s">
         <v>10</v>
       </c>
-      <c r="C163" t="s">
-        <v>261</v>
+      <c r="B163" t="s">
+        <v>173</v>
       </c>
       <c r="D163" t="s">
         <v>522</v>
@@ -8378,8 +8378,8 @@
       <c r="A164" t="s">
         <v>10</v>
       </c>
-      <c r="C164" t="s">
-        <v>262</v>
+      <c r="B164" t="s">
+        <v>174</v>
       </c>
       <c r="D164" t="s">
         <v>523</v>
@@ -8407,8 +8407,8 @@
       <c r="A165" t="s">
         <v>10</v>
       </c>
-      <c r="C165" t="s">
-        <v>263</v>
+      <c r="B165" t="s">
+        <v>175</v>
       </c>
       <c r="D165" t="s">
         <v>522</v>
@@ -8436,8 +8436,8 @@
       <c r="A166" t="s">
         <v>10</v>
       </c>
-      <c r="C166" t="s">
-        <v>264</v>
+      <c r="B166" t="s">
+        <v>176</v>
       </c>
       <c r="D166" t="s">
         <v>522</v>
@@ -8465,8 +8465,8 @@
       <c r="A167" t="s">
         <v>10</v>
       </c>
-      <c r="C167" t="s">
-        <v>42</v>
+      <c r="B167" t="s">
+        <v>177</v>
       </c>
       <c r="D167" t="s">
         <v>522</v>
@@ -8494,8 +8494,8 @@
       <c r="A168" t="s">
         <v>10</v>
       </c>
-      <c r="C168" t="s">
-        <v>85</v>
+      <c r="B168" t="s">
+        <v>178</v>
       </c>
       <c r="D168" t="s">
         <v>523</v>
@@ -8523,8 +8523,8 @@
       <c r="A169" t="s">
         <v>10</v>
       </c>
-      <c r="C169" t="s">
-        <v>265</v>
+      <c r="B169" t="s">
+        <v>179</v>
       </c>
       <c r="D169" t="s">
         <v>522</v>
@@ -8552,8 +8552,8 @@
       <c r="A170" t="s">
         <v>10</v>
       </c>
-      <c r="C170" t="s">
-        <v>266</v>
+      <c r="B170" t="s">
+        <v>180</v>
       </c>
       <c r="D170" t="s">
         <v>522</v>
@@ -8581,8 +8581,8 @@
       <c r="A171" t="s">
         <v>10</v>
       </c>
-      <c r="C171" t="s">
-        <v>267</v>
+      <c r="B171" t="s">
+        <v>181</v>
       </c>
       <c r="D171" t="s">
         <v>522</v>
@@ -8610,8 +8610,8 @@
       <c r="A172" t="s">
         <v>10</v>
       </c>
-      <c r="C172" t="s">
-        <v>44</v>
+      <c r="B172" t="s">
+        <v>182</v>
       </c>
       <c r="D172" t="s">
         <v>522</v>
@@ -8639,8 +8639,8 @@
       <c r="A173" t="s">
         <v>10</v>
       </c>
-      <c r="C173" t="s">
-        <v>268</v>
+      <c r="B173" t="s">
+        <v>183</v>
       </c>
       <c r="D173" t="s">
         <v>522</v>
@@ -8668,8 +8668,8 @@
       <c r="A174" t="s">
         <v>10</v>
       </c>
-      <c r="C174" t="s">
-        <v>87</v>
+      <c r="B174" t="s">
+        <v>184</v>
       </c>
       <c r="D174" t="s">
         <v>523</v>
@@ -8697,8 +8697,8 @@
       <c r="A175" t="s">
         <v>10</v>
       </c>
-      <c r="C175" t="s">
-        <v>269</v>
+      <c r="B175" t="s">
+        <v>185</v>
       </c>
       <c r="D175" t="s">
         <v>523</v>
@@ -8726,8 +8726,8 @@
       <c r="A176" t="s">
         <v>10</v>
       </c>
-      <c r="C176" t="s">
-        <v>270</v>
+      <c r="B176" t="s">
+        <v>186</v>
       </c>
       <c r="D176" t="s">
         <v>522</v>
@@ -8755,8 +8755,8 @@
       <c r="A177" t="s">
         <v>10</v>
       </c>
-      <c r="C177" t="s">
-        <v>271</v>
+      <c r="B177" t="s">
+        <v>187</v>
       </c>
       <c r="D177" t="s">
         <v>523</v>
@@ -8784,8 +8784,8 @@
       <c r="A178" t="s">
         <v>10</v>
       </c>
-      <c r="C178" t="s">
-        <v>272</v>
+      <c r="B178" t="s">
+        <v>188</v>
       </c>
       <c r="D178" t="s">
         <v>523</v>
@@ -8813,8 +8813,8 @@
       <c r="A179" t="s">
         <v>10</v>
       </c>
-      <c r="C179" t="s">
-        <v>273</v>
+      <c r="B179" t="s">
+        <v>189</v>
       </c>
       <c r="D179" t="s">
         <v>522</v>
@@ -8842,8 +8842,8 @@
       <c r="A180" t="s">
         <v>10</v>
       </c>
-      <c r="C180" t="s">
-        <v>274</v>
+      <c r="B180" t="s">
+        <v>190</v>
       </c>
       <c r="D180" t="s">
         <v>522</v>
@@ -8871,8 +8871,8 @@
       <c r="A181" t="s">
         <v>10</v>
       </c>
-      <c r="C181" t="s">
-        <v>89</v>
+      <c r="B181" t="s">
+        <v>191</v>
       </c>
       <c r="D181" t="s">
         <v>522</v>
@@ -8900,8 +8900,8 @@
       <c r="A182" t="s">
         <v>10</v>
       </c>
-      <c r="C182" t="s">
-        <v>275</v>
+      <c r="B182" t="s">
+        <v>192</v>
       </c>
       <c r="D182" t="s">
         <v>522</v>
@@ -8929,8 +8929,8 @@
       <c r="A183" t="s">
         <v>10</v>
       </c>
-      <c r="C183" t="s">
-        <v>47</v>
+      <c r="B183" t="s">
+        <v>193</v>
       </c>
       <c r="D183" t="s">
         <v>522</v>
@@ -8958,8 +8958,8 @@
       <c r="A184" t="s">
         <v>10</v>
       </c>
-      <c r="C184" t="s">
-        <v>276</v>
+      <c r="B184" t="s">
+        <v>194</v>
       </c>
       <c r="D184" t="s">
         <v>522</v>
@@ -8987,8 +8987,8 @@
       <c r="A185" t="s">
         <v>10</v>
       </c>
-      <c r="C185" t="s">
-        <v>277</v>
+      <c r="B185" t="s">
+        <v>195</v>
       </c>
       <c r="D185" t="s">
         <v>522</v>
@@ -9016,8 +9016,8 @@
       <c r="A186" t="s">
         <v>10</v>
       </c>
-      <c r="C186" t="s">
-        <v>278</v>
+      <c r="B186" t="s">
+        <v>196</v>
       </c>
       <c r="D186" t="s">
         <v>523</v>
@@ -9045,8 +9045,8 @@
       <c r="A187" t="s">
         <v>10</v>
       </c>
-      <c r="C187" t="s">
-        <v>279</v>
+      <c r="B187" t="s">
+        <v>197</v>
       </c>
       <c r="D187" t="s">
         <v>523</v>
@@ -9074,8 +9074,8 @@
       <c r="A188" t="s">
         <v>10</v>
       </c>
-      <c r="C188" t="s">
-        <v>280</v>
+      <c r="B188" t="s">
+        <v>198</v>
       </c>
       <c r="D188" t="s">
         <v>523</v>
@@ -9103,8 +9103,8 @@
       <c r="A189" t="s">
         <v>10</v>
       </c>
-      <c r="C189" t="s">
-        <v>50</v>
+      <c r="B189" t="s">
+        <v>199</v>
       </c>
       <c r="D189" t="s">
         <v>523</v>
@@ -9132,8 +9132,8 @@
       <c r="A190" t="s">
         <v>10</v>
       </c>
-      <c r="C190" t="s">
-        <v>281</v>
+      <c r="B190" t="s">
+        <v>200</v>
       </c>
       <c r="D190" t="s">
         <v>522</v>
@@ -9161,8 +9161,8 @@
       <c r="A191" t="s">
         <v>10</v>
       </c>
-      <c r="C191" t="s">
-        <v>282</v>
+      <c r="B191" t="s">
+        <v>201</v>
       </c>
       <c r="D191" t="s">
         <v>523</v>
@@ -9190,8 +9190,8 @@
       <c r="A192" t="s">
         <v>10</v>
       </c>
-      <c r="C192" t="s">
-        <v>283</v>
+      <c r="B192" t="s">
+        <v>202</v>
       </c>
       <c r="D192" t="s">
         <v>523</v>
@@ -9219,8 +9219,8 @@
       <c r="A193" t="s">
         <v>10</v>
       </c>
-      <c r="C193" t="s">
-        <v>284</v>
+      <c r="B193" t="s">
+        <v>203</v>
       </c>
       <c r="D193" t="s">
         <v>522</v>
@@ -9248,8 +9248,8 @@
       <c r="A194" t="s">
         <v>10</v>
       </c>
-      <c r="C194" t="s">
-        <v>285</v>
+      <c r="B194" t="s">
+        <v>204</v>
       </c>
       <c r="D194" t="s">
         <v>522</v>
@@ -9277,8 +9277,8 @@
       <c r="A195" t="s">
         <v>10</v>
       </c>
-      <c r="C195" t="s">
-        <v>286</v>
+      <c r="B195" t="s">
+        <v>205</v>
       </c>
       <c r="D195" t="s">
         <v>522</v>
@@ -9306,8 +9306,8 @@
       <c r="A196" t="s">
         <v>10</v>
       </c>
-      <c r="C196" t="s">
-        <v>287</v>
+      <c r="B196" t="s">
+        <v>206</v>
       </c>
       <c r="D196" t="s">
         <v>522</v>
@@ -9335,8 +9335,8 @@
       <c r="A197" t="s">
         <v>10</v>
       </c>
-      <c r="C197" t="s">
-        <v>288</v>
+      <c r="B197" t="s">
+        <v>207</v>
       </c>
       <c r="D197" t="s">
         <v>523</v>
@@ -9364,8 +9364,8 @@
       <c r="A198" t="s">
         <v>10</v>
       </c>
-      <c r="C198" t="s">
-        <v>289</v>
+      <c r="B198" t="s">
+        <v>208</v>
       </c>
       <c r="D198" t="s">
         <v>523</v>
@@ -9393,8 +9393,8 @@
       <c r="A199" t="s">
         <v>10</v>
       </c>
-      <c r="C199" t="s">
-        <v>290</v>
+      <c r="B199" t="s">
+        <v>209</v>
       </c>
       <c r="D199" t="s">
         <v>523</v>
@@ -9422,8 +9422,8 @@
       <c r="A200" t="s">
         <v>10</v>
       </c>
-      <c r="C200" t="s">
-        <v>291</v>
+      <c r="B200" t="s">
+        <v>210</v>
       </c>
       <c r="D200" t="s">
         <v>522</v>
@@ -9451,8 +9451,8 @@
       <c r="A201" t="s">
         <v>10</v>
       </c>
-      <c r="C201" t="s">
-        <v>54</v>
+      <c r="B201" t="s">
+        <v>211</v>
       </c>
       <c r="D201" t="s">
         <v>522</v>
@@ -9480,8 +9480,8 @@
       <c r="A202" t="s">
         <v>10</v>
       </c>
-      <c r="C202" t="s">
-        <v>55</v>
+      <c r="B202" t="s">
+        <v>212</v>
       </c>
       <c r="D202" t="s">
         <v>523</v>
@@ -9509,8 +9509,8 @@
       <c r="A203" t="s">
         <v>10</v>
       </c>
-      <c r="C203" t="s">
-        <v>292</v>
+      <c r="B203" t="s">
+        <v>213</v>
       </c>
       <c r="D203" t="s">
         <v>522</v>
@@ -9538,8 +9538,8 @@
       <c r="A204" t="s">
         <v>10</v>
       </c>
-      <c r="C204" t="s">
-        <v>96</v>
+      <c r="B204" t="s">
+        <v>214</v>
       </c>
       <c r="D204" t="s">
         <v>522</v>
@@ -9567,8 +9567,8 @@
       <c r="A205" t="s">
         <v>10</v>
       </c>
-      <c r="C205" t="s">
-        <v>293</v>
+      <c r="B205" t="s">
+        <v>215</v>
       </c>
       <c r="D205" t="s">
         <v>523</v>
@@ -9596,8 +9596,8 @@
       <c r="A206" t="s">
         <v>10</v>
       </c>
-      <c r="C206" t="s">
-        <v>294</v>
+      <c r="B206" t="s">
+        <v>216</v>
       </c>
       <c r="D206" t="s">
         <v>522</v>
@@ -9625,8 +9625,8 @@
       <c r="A207" t="s">
         <v>10</v>
       </c>
-      <c r="C207" t="s">
-        <v>295</v>
+      <c r="B207" t="s">
+        <v>217</v>
       </c>
       <c r="D207" t="s">
         <v>523</v>
@@ -9654,8 +9654,8 @@
       <c r="A208" t="s">
         <v>10</v>
       </c>
-      <c r="C208" t="s">
-        <v>296</v>
+      <c r="B208" t="s">
+        <v>218</v>
       </c>
       <c r="D208" t="s">
         <v>523</v>
@@ -9683,8 +9683,8 @@
       <c r="A209" t="s">
         <v>10</v>
       </c>
-      <c r="C209" t="s">
-        <v>297</v>
+      <c r="B209" t="s">
+        <v>219</v>
       </c>
       <c r="D209" t="s">
         <v>522</v>
@@ -9712,8 +9712,8 @@
       <c r="A210" t="s">
         <v>10</v>
       </c>
-      <c r="C210" t="s">
-        <v>101</v>
+      <c r="B210" t="s">
+        <v>220</v>
       </c>
       <c r="D210" t="s">
         <v>522</v>
@@ -9741,8 +9741,8 @@
       <c r="A211" t="s">
         <v>10</v>
       </c>
-      <c r="C211" t="s">
-        <v>298</v>
+      <c r="B211" t="s">
+        <v>221</v>
       </c>
       <c r="D211" t="s">
         <v>523</v>
@@ -9770,8 +9770,8 @@
       <c r="A212" t="s">
         <v>10</v>
       </c>
-      <c r="C212" t="s">
-        <v>299</v>
+      <c r="B212" t="s">
+        <v>222</v>
       </c>
       <c r="D212" t="s">
         <v>522</v>
@@ -9799,8 +9799,8 @@
       <c r="A213" t="s">
         <v>10</v>
       </c>
-      <c r="C213" t="s">
-        <v>62</v>
+      <c r="B213" t="s">
+        <v>223</v>
       </c>
       <c r="D213" t="s">
         <v>522</v>
@@ -9828,8 +9828,8 @@
       <c r="A214" t="s">
         <v>10</v>
       </c>
-      <c r="C214" t="s">
-        <v>300</v>
+      <c r="B214" t="s">
+        <v>224</v>
       </c>
       <c r="D214" t="s">
         <v>523</v>
@@ -9857,8 +9857,8 @@
       <c r="A215" t="s">
         <v>10</v>
       </c>
-      <c r="C215" t="s">
-        <v>301</v>
+      <c r="B215" t="s">
+        <v>225</v>
       </c>
       <c r="D215" t="s">
         <v>523</v>
@@ -9886,8 +9886,8 @@
       <c r="A216" t="s">
         <v>10</v>
       </c>
-      <c r="C216" t="s">
-        <v>106</v>
+      <c r="B216" t="s">
+        <v>226</v>
       </c>
       <c r="D216" t="s">
         <v>523</v>
@@ -9915,8 +9915,8 @@
       <c r="A217" t="s">
         <v>10</v>
       </c>
-      <c r="C217" t="s">
-        <v>108</v>
+      <c r="B217" t="s">
+        <v>227</v>
       </c>
       <c r="D217" t="s">
         <v>523</v>
@@ -9944,8 +9944,8 @@
       <c r="A218" t="s">
         <v>10</v>
       </c>
-      <c r="C218" t="s">
-        <v>302</v>
+      <c r="B218" t="s">
+        <v>228</v>
       </c>
       <c r="D218" t="s">
         <v>522</v>
@@ -9973,8 +9973,8 @@
       <c r="A219" t="s">
         <v>10</v>
       </c>
-      <c r="C219" t="s">
-        <v>303</v>
+      <c r="B219" t="s">
+        <v>229</v>
       </c>
       <c r="D219" t="s">
         <v>523</v>
@@ -10002,8 +10002,8 @@
       <c r="A220" t="s">
         <v>10</v>
       </c>
-      <c r="C220" t="s">
-        <v>304</v>
+      <c r="B220" t="s">
+        <v>230</v>
       </c>
       <c r="D220" t="s">
         <v>523</v>
@@ -10031,8 +10031,8 @@
       <c r="A221" t="s">
         <v>10</v>
       </c>
-      <c r="C221" t="s">
-        <v>305</v>
+      <c r="B221" t="s">
+        <v>231</v>
       </c>
       <c r="D221" t="s">
         <v>522</v>
@@ -10060,8 +10060,8 @@
       <c r="A222" t="s">
         <v>10</v>
       </c>
-      <c r="C222" t="s">
-        <v>306</v>
+      <c r="B222" t="s">
+        <v>232</v>
       </c>
       <c r="D222" t="s">
         <v>523</v>
@@ -10089,8 +10089,8 @@
       <c r="A223" t="s">
         <v>10</v>
       </c>
-      <c r="C223" t="s">
-        <v>307</v>
+      <c r="B223" t="s">
+        <v>233</v>
       </c>
       <c r="D223" t="s">
         <v>522</v>
@@ -10118,8 +10118,8 @@
       <c r="A224" t="s">
         <v>10</v>
       </c>
-      <c r="C224" t="s">
-        <v>308</v>
+      <c r="B224" t="s">
+        <v>234</v>
       </c>
       <c r="D224" t="s">
         <v>523</v>
@@ -10147,8 +10147,8 @@
       <c r="A225" t="s">
         <v>10</v>
       </c>
-      <c r="C225" t="s">
-        <v>309</v>
+      <c r="B225" t="s">
+        <v>235</v>
       </c>
       <c r="D225" t="s">
         <v>522</v>
@@ -10176,8 +10176,8 @@
       <c r="A226" t="s">
         <v>10</v>
       </c>
-      <c r="C226" t="s">
-        <v>310</v>
+      <c r="B226" t="s">
+        <v>236</v>
       </c>
       <c r="D226" t="s">
         <v>522</v>
@@ -10205,8 +10205,8 @@
       <c r="A227" t="s">
         <v>10</v>
       </c>
-      <c r="C227" t="s">
-        <v>311</v>
+      <c r="B227" t="s">
+        <v>237</v>
       </c>
       <c r="D227" t="s">
         <v>522</v>
@@ -10234,8 +10234,8 @@
       <c r="A228" t="s">
         <v>10</v>
       </c>
-      <c r="C228" t="s">
-        <v>312</v>
+      <c r="B228" t="s">
+        <v>238</v>
       </c>
       <c r="D228" t="s">
         <v>523</v>
@@ -10263,8 +10263,8 @@
       <c r="A229" t="s">
         <v>10</v>
       </c>
-      <c r="C229" t="s">
-        <v>313</v>
+      <c r="B229" t="s">
+        <v>239</v>
       </c>
       <c r="D229" t="s">
         <v>522</v>
@@ -10292,8 +10292,8 @@
       <c r="A230" t="s">
         <v>10</v>
       </c>
-      <c r="C230" t="s">
-        <v>314</v>
+      <c r="B230" t="s">
+        <v>240</v>
       </c>
       <c r="D230" t="s">
         <v>522</v>
@@ -10321,8 +10321,8 @@
       <c r="A231" t="s">
         <v>10</v>
       </c>
-      <c r="C231" t="s">
-        <v>65</v>
+      <c r="B231" t="s">
+        <v>241</v>
       </c>
       <c r="D231" t="s">
         <v>523</v>
@@ -10350,8 +10350,8 @@
       <c r="A232" t="s">
         <v>10</v>
       </c>
-      <c r="C232" t="s">
-        <v>315</v>
+      <c r="B232" t="s">
+        <v>242</v>
       </c>
       <c r="D232" t="s">
         <v>522</v>
@@ -10379,8 +10379,8 @@
       <c r="A233" t="s">
         <v>10</v>
       </c>
-      <c r="C233" t="s">
-        <v>316</v>
+      <c r="B233" t="s">
+        <v>243</v>
       </c>
       <c r="D233" t="s">
         <v>523</v>
@@ -10408,8 +10408,8 @@
       <c r="A234" t="s">
         <v>10</v>
       </c>
-      <c r="C234" t="s">
-        <v>317</v>
+      <c r="B234" t="s">
+        <v>244</v>
       </c>
       <c r="D234" t="s">
         <v>523</v>
@@ -10437,8 +10437,8 @@
       <c r="A235" t="s">
         <v>10</v>
       </c>
-      <c r="C235" t="s">
-        <v>318</v>
+      <c r="B235" t="s">
+        <v>245</v>
       </c>
       <c r="D235" t="s">
         <v>522</v>
@@ -10466,8 +10466,8 @@
       <c r="A236" t="s">
         <v>10</v>
       </c>
-      <c r="C236" t="s">
-        <v>319</v>
+      <c r="B236" t="s">
+        <v>246</v>
       </c>
       <c r="D236" t="s">
         <v>522</v>
@@ -10495,8 +10495,8 @@
       <c r="A237" t="s">
         <v>10</v>
       </c>
-      <c r="C237" t="s">
-        <v>320</v>
+      <c r="B237" t="s">
+        <v>247</v>
       </c>
       <c r="D237" t="s">
         <v>523</v>
@@ -10524,8 +10524,8 @@
       <c r="A238" t="s">
         <v>10</v>
       </c>
-      <c r="C238" t="s">
-        <v>59</v>
+      <c r="B238" t="s">
+        <v>248</v>
       </c>
       <c r="D238" t="s">
         <v>522</v>
@@ -10553,8 +10553,8 @@
       <c r="A239" t="s">
         <v>10</v>
       </c>
-      <c r="C239" t="s">
-        <v>321</v>
+      <c r="B239" t="s">
+        <v>249</v>
       </c>
       <c r="D239" t="s">
         <v>523</v>
@@ -10582,8 +10582,8 @@
       <c r="A240" t="s">
         <v>10</v>
       </c>
-      <c r="C240" t="s">
-        <v>322</v>
+      <c r="B240" t="s">
+        <v>250</v>
       </c>
       <c r="D240" t="s">
         <v>523</v>
@@ -10611,8 +10611,8 @@
       <c r="A241" t="s">
         <v>10</v>
       </c>
-      <c r="C241" t="s">
-        <v>323</v>
+      <c r="B241" t="s">
+        <v>251</v>
       </c>
       <c r="D241" t="s">
         <v>522</v>
@@ -10640,8 +10640,8 @@
       <c r="A242" t="s">
         <v>10</v>
       </c>
-      <c r="C242" t="s">
-        <v>324</v>
+      <c r="B242" t="s">
+        <v>252</v>
       </c>
       <c r="D242" t="s">
         <v>522</v>
@@ -10669,8 +10669,8 @@
       <c r="A243" t="s">
         <v>10</v>
       </c>
-      <c r="C243" t="s">
-        <v>325</v>
+      <c r="B243" t="s">
+        <v>253</v>
       </c>
       <c r="D243" t="s">
         <v>523</v>
@@ -10698,8 +10698,8 @@
       <c r="A244" t="s">
         <v>10</v>
       </c>
-      <c r="C244" t="s">
-        <v>326</v>
+      <c r="B244" t="s">
+        <v>254</v>
       </c>
       <c r="D244" t="s">
         <v>523</v>
@@ -10727,8 +10727,8 @@
       <c r="A245" t="s">
         <v>10</v>
       </c>
-      <c r="C245" t="s">
-        <v>327</v>
+      <c r="B245" t="s">
+        <v>255</v>
       </c>
       <c r="D245" t="s">
         <v>523</v>
@@ -10757,10 +10757,10 @@
         <v>11</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="C246" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="D246" t="s">
         <v>523</v>
@@ -10789,10 +10789,10 @@
         <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="C247" t="s">
-        <v>329</v>
+        <v>434</v>
       </c>
       <c r="D247" t="s">
         <v>523</v>
@@ -10821,10 +10821,10 @@
         <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="C248" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="D248" t="s">
         <v>523</v>
@@ -10853,10 +10853,10 @@
         <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="C249" t="s">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="D249" t="s">
         <v>523</v>
@@ -10885,10 +10885,10 @@
         <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="C250" t="s">
-        <v>332</v>
+        <v>437</v>
       </c>
       <c r="D250" t="s">
         <v>523</v>
@@ -10917,10 +10917,10 @@
         <v>11</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="C251" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="D251" t="s">
         <v>523</v>
@@ -10949,10 +10949,10 @@
         <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="C252" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="D252" t="s">
         <v>523</v>
@@ -10981,10 +10981,10 @@
         <v>11</v>
       </c>
       <c r="B253" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="C253" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="D253" t="s">
         <v>523</v>
@@ -11013,10 +11013,10 @@
         <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C254" t="s">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="D254" t="s">
         <v>523</v>
@@ -11045,10 +11045,10 @@
         <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C255" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="D255" t="s">
         <v>523</v>
@@ -11077,10 +11077,10 @@
         <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="C256" t="s">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="D256" t="s">
         <v>523</v>
@@ -11109,10 +11109,10 @@
         <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="C257" t="s">
-        <v>338</v>
+        <v>443</v>
       </c>
       <c r="D257" t="s">
         <v>523</v>
@@ -11141,10 +11141,10 @@
         <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="C258" t="s">
-        <v>339</v>
+        <v>444</v>
       </c>
       <c r="D258" t="s">
         <v>523</v>
@@ -11173,10 +11173,10 @@
         <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="D259" t="s">
         <v>523</v>
@@ -11205,10 +11205,10 @@
         <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="C260" t="s">
-        <v>341</v>
+        <v>446</v>
       </c>
       <c r="D260" t="s">
         <v>523</v>
@@ -11237,10 +11237,10 @@
         <v>11</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="C261" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="D261" t="s">
         <v>523</v>
@@ -11269,10 +11269,10 @@
         <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
       <c r="D262" t="s">
         <v>523</v>
@@ -11301,10 +11301,10 @@
         <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="C263" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="D263" t="s">
         <v>523</v>
@@ -11333,10 +11333,10 @@
         <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="C264" t="s">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="D264" t="s">
         <v>523</v>
@@ -11365,10 +11365,10 @@
         <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C265" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="D265" t="s">
         <v>523</v>
@@ -11397,10 +11397,10 @@
         <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="C266" t="s">
-        <v>346</v>
+        <v>451</v>
       </c>
       <c r="D266" t="s">
         <v>523</v>
@@ -11429,10 +11429,10 @@
         <v>11</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C267" t="s">
-        <v>347</v>
+        <v>452</v>
       </c>
       <c r="D267" t="s">
         <v>523</v>
@@ -11461,10 +11461,10 @@
         <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C268" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="D268" t="s">
         <v>522</v>
@@ -11490,10 +11490,10 @@
         <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="D269" t="s">
         <v>523</v>
@@ -11522,10 +11522,10 @@
         <v>11</v>
       </c>
       <c r="B270" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C270" t="s">
-        <v>348</v>
+        <v>453</v>
       </c>
       <c r="D270" t="s">
         <v>523</v>
@@ -11554,10 +11554,10 @@
         <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C271" t="s">
-        <v>349</v>
+        <v>454</v>
       </c>
       <c r="D271" t="s">
         <v>522</v>
@@ -11583,10 +11583,10 @@
         <v>11</v>
       </c>
       <c r="B272" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="C272" t="s">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="D272" t="s">
         <v>523</v>
@@ -11615,10 +11615,10 @@
         <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="C273" t="s">
-        <v>351</v>
+        <v>456</v>
       </c>
       <c r="D273" t="s">
         <v>522</v>
@@ -11644,10 +11644,10 @@
         <v>11</v>
       </c>
       <c r="B274" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="C274" t="s">
-        <v>352</v>
+        <v>457</v>
       </c>
       <c r="D274" t="s">
         <v>522</v>
@@ -11673,10 +11673,10 @@
         <v>11</v>
       </c>
       <c r="B275" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>353</v>
+        <v>458</v>
       </c>
       <c r="D275" t="s">
         <v>522</v>
@@ -11702,10 +11702,10 @@
         <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>459</v>
       </c>
       <c r="D276" t="s">
         <v>522</v>
@@ -11731,10 +11731,10 @@
         <v>11</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="C277" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="D277" t="s">
         <v>522</v>
@@ -11760,10 +11760,10 @@
         <v>11</v>
       </c>
       <c r="B278" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="D278" t="s">
         <v>522</v>
@@ -11789,10 +11789,10 @@
         <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C279" t="s">
-        <v>357</v>
+        <v>462</v>
       </c>
       <c r="D279" t="s">
         <v>523</v>
@@ -11821,10 +11821,10 @@
         <v>11</v>
       </c>
       <c r="B280" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>463</v>
       </c>
       <c r="D280" t="s">
         <v>522</v>
@@ -11850,10 +11850,10 @@
         <v>11</v>
       </c>
       <c r="B281" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="C281" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="D281" t="s">
         <v>522</v>
@@ -11879,10 +11879,10 @@
         <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="C282" t="s">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="D282" t="s">
         <v>523</v>
@@ -11911,10 +11911,10 @@
         <v>11</v>
       </c>
       <c r="B283" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="D283" t="s">
         <v>523</v>
@@ -11943,10 +11943,10 @@
         <v>11</v>
       </c>
       <c r="B284" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="C284" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="D284" t="s">
         <v>523</v>
@@ -11975,10 +11975,10 @@
         <v>11</v>
       </c>
       <c r="B285" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="C285" t="s">
-        <v>362</v>
+        <v>467</v>
       </c>
       <c r="D285" t="s">
         <v>523</v>
@@ -12007,10 +12007,10 @@
         <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C286" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="D286" t="s">
         <v>523</v>
@@ -12039,10 +12039,10 @@
         <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="C287" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="D287" t="s">
         <v>523</v>
@@ -12071,10 +12071,10 @@
         <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="D288" t="s">
         <v>522</v>
@@ -12100,10 +12100,10 @@
         <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>471</v>
       </c>
       <c r="D289" t="s">
         <v>523</v>
@@ -12132,10 +12132,10 @@
         <v>11</v>
       </c>
       <c r="B290" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="C290" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="D290" t="s">
         <v>523</v>
@@ -12164,10 +12164,10 @@
         <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="C291" t="s">
-        <v>368</v>
+        <v>473</v>
       </c>
       <c r="D291" t="s">
         <v>523</v>
@@ -12196,10 +12196,10 @@
         <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="C292" t="s">
-        <v>369</v>
+        <v>474</v>
       </c>
       <c r="D292" t="s">
         <v>522</v>
@@ -12225,10 +12225,10 @@
         <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="C293" t="s">
-        <v>370</v>
+        <v>475</v>
       </c>
       <c r="D293" t="s">
         <v>522</v>
@@ -12254,10 +12254,10 @@
         <v>11</v>
       </c>
       <c r="B294" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="C294" t="s">
-        <v>371</v>
+        <v>476</v>
       </c>
       <c r="D294" t="s">
         <v>522</v>
@@ -12283,10 +12283,10 @@
         <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="C295" t="s">
-        <v>372</v>
+        <v>477</v>
       </c>
       <c r="D295" t="s">
         <v>523</v>
@@ -12315,10 +12315,10 @@
         <v>11</v>
       </c>
       <c r="B296" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="C296" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="D296" t="s">
         <v>522</v>
@@ -12344,10 +12344,10 @@
         <v>11</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="C297" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="D297" t="s">
         <v>522</v>
@@ -12373,10 +12373,10 @@
         <v>11</v>
       </c>
       <c r="B298" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="C298" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="D298" t="s">
         <v>523</v>
@@ -12405,10 +12405,10 @@
         <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="C299" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="D299" t="s">
         <v>523</v>
@@ -12437,10 +12437,10 @@
         <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="C300" t="s">
-        <v>377</v>
+        <v>482</v>
       </c>
       <c r="D300" t="s">
         <v>522</v>
@@ -12466,10 +12466,10 @@
         <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C301" t="s">
-        <v>378</v>
+        <v>483</v>
       </c>
       <c r="D301" t="s">
         <v>522</v>
@@ -12495,10 +12495,10 @@
         <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C302" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="D302" t="s">
         <v>522</v>
@@ -12524,10 +12524,10 @@
         <v>11</v>
       </c>
       <c r="B303" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C303" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="D303" t="s">
         <v>522</v>
@@ -12553,10 +12553,10 @@
         <v>11</v>
       </c>
       <c r="B304" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C304" t="s">
-        <v>380</v>
+        <v>485</v>
       </c>
       <c r="D304" t="s">
         <v>522</v>
@@ -12582,10 +12582,10 @@
         <v>11</v>
       </c>
       <c r="B305" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="C305" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="D305" t="s">
         <v>522</v>
@@ -12611,10 +12611,10 @@
         <v>11</v>
       </c>
       <c r="B306" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="C306" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="D306" t="s">
         <v>522</v>
@@ -12640,10 +12640,10 @@
         <v>11</v>
       </c>
       <c r="B307" t="s">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="C307" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D307" t="s">
         <v>523</v>
@@ -12672,10 +12672,10 @@
         <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C308" t="s">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="D308" t="s">
         <v>523</v>
@@ -12704,10 +12704,10 @@
         <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="C309" t="s">
-        <v>385</v>
+        <v>489</v>
       </c>
       <c r="D309" t="s">
         <v>522</v>
@@ -12733,10 +12733,10 @@
         <v>11</v>
       </c>
       <c r="B310" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="C310" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="D310" t="s">
         <v>523</v>
@@ -12765,10 +12765,10 @@
         <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C311" t="s">
-        <v>387</v>
+        <v>491</v>
       </c>
       <c r="D311" t="s">
         <v>523</v>
@@ -12797,10 +12797,10 @@
         <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="C312" t="s">
-        <v>388</v>
+        <v>492</v>
       </c>
       <c r="D312" t="s">
         <v>523</v>
@@ -12829,10 +12829,10 @@
         <v>11</v>
       </c>
       <c r="B313" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="C313" t="s">
-        <v>389</v>
+        <v>493</v>
       </c>
       <c r="D313" t="s">
         <v>522</v>
@@ -12858,10 +12858,10 @@
         <v>11</v>
       </c>
       <c r="B314" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="C314" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="D314" t="s">
         <v>522</v>
@@ -12887,10 +12887,10 @@
         <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="C315" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
       <c r="D315" t="s">
         <v>522</v>
@@ -12916,10 +12916,10 @@
         <v>11</v>
       </c>
       <c r="B316" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="C316" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="D316" t="s">
         <v>522</v>
@@ -12945,10 +12945,10 @@
         <v>11</v>
       </c>
       <c r="B317" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="C317" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="D317" t="s">
         <v>522</v>
@@ -12974,10 +12974,10 @@
         <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="C318" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D318" t="s">
         <v>523</v>
@@ -13006,10 +13006,10 @@
         <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="C319" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="D319" t="s">
         <v>523</v>
@@ -13038,10 +13038,10 @@
         <v>11</v>
       </c>
       <c r="B320" t="s">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="C320" t="s">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="D320" t="s">
         <v>523</v>
@@ -13070,10 +13070,10 @@
         <v>11</v>
       </c>
       <c r="B321" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="C321" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D321" t="s">
         <v>523</v>
@@ -13102,10 +13102,10 @@
         <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="C322" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="D322" t="s">
         <v>523</v>
@@ -13134,10 +13134,10 @@
         <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C323" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="D323" t="s">
         <v>522</v>
@@ -13163,10 +13163,10 @@
         <v>11</v>
       </c>
       <c r="B324" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="C324" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="D324" t="s">
         <v>522</v>
@@ -13192,10 +13192,10 @@
         <v>11</v>
       </c>
       <c r="B325" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="C325" t="s">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="D325" t="s">
         <v>522</v>
@@ -13221,10 +13221,10 @@
         <v>11</v>
       </c>
       <c r="B326" t="s">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c r="C326" t="s">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="D326" t="s">
         <v>522</v>
@@ -13250,10 +13250,10 @@
         <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="C327" t="s">
-        <v>403</v>
+        <v>506</v>
       </c>
       <c r="D327" t="s">
         <v>522</v>
@@ -13279,10 +13279,10 @@
         <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>94</v>
+        <v>311</v>
       </c>
       <c r="C328" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="D328" t="s">
         <v>523</v>
@@ -13311,10 +13311,10 @@
         <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="C329" t="s">
-        <v>405</v>
+        <v>508</v>
       </c>
       <c r="D329" t="s">
         <v>522</v>
@@ -13340,10 +13340,10 @@
         <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="C330" t="s">
-        <v>406</v>
+        <v>509</v>
       </c>
       <c r="D330" t="s">
         <v>522</v>
@@ -13369,10 +13369,10 @@
         <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>97</v>
+        <v>313</v>
       </c>
       <c r="C331" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="D331" t="s">
         <v>522</v>
@@ -13398,10 +13398,10 @@
         <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
       <c r="C332" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="D332" t="s">
         <v>523</v>
@@ -13430,10 +13430,10 @@
         <v>11</v>
       </c>
       <c r="B333" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="C333" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="D333" t="s">
         <v>523</v>
@@ -13462,10 +13462,10 @@
         <v>11</v>
       </c>
       <c r="B334" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C334" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D334" t="s">
         <v>523</v>
@@ -13494,10 +13494,10 @@
         <v>11</v>
       </c>
       <c r="B335" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="C335" t="s">
-        <v>411</v>
+        <v>513</v>
       </c>
       <c r="D335" t="s">
         <v>522</v>
@@ -13523,10 +13523,10 @@
         <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="C336" t="s">
-        <v>412</v>
+        <v>514</v>
       </c>
       <c r="D336" t="s">
         <v>522</v>
@@ -13552,10 +13552,10 @@
         <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="C337" t="s">
-        <v>413</v>
+        <v>515</v>
       </c>
       <c r="D337" t="s">
         <v>522</v>
@@ -13581,10 +13581,10 @@
         <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="C338" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="D338" t="s">
         <v>522</v>
@@ -13610,10 +13610,10 @@
         <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="C339" t="s">
-        <v>415</v>
+        <v>517</v>
       </c>
       <c r="D339" t="s">
         <v>523</v>
@@ -13642,10 +13642,10 @@
         <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="C340" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="D340" t="s">
         <v>523</v>
@@ -13674,10 +13674,10 @@
         <v>11</v>
       </c>
       <c r="B341" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="C341" t="s">
-        <v>417</v>
+        <v>519</v>
       </c>
       <c r="D341" t="s">
         <v>523</v>
@@ -13706,10 +13706,10 @@
         <v>11</v>
       </c>
       <c r="B342" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="C342" t="s">
-        <v>418</v>
+        <v>520</v>
       </c>
       <c r="D342" t="s">
         <v>523</v>
@@ -13738,10 +13738,10 @@
         <v>11</v>
       </c>
       <c r="B343" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="C343" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="D343" t="s">
         <v>523</v>
@@ -13770,10 +13770,10 @@
         <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="C344" t="s">
-        <v>419</v>
+        <v>521</v>
       </c>
       <c r="D344" t="s">
         <v>523</v>
@@ -13802,7 +13802,7 @@
         <v>11</v>
       </c>
       <c r="B345" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="D345" t="s">
         <v>523</v>
@@ -13831,7 +13831,7 @@
         <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="D346" t="s">
         <v>522</v>
@@ -13857,7 +13857,7 @@
         <v>11</v>
       </c>
       <c r="B347" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="D347" t="s">
         <v>523</v>
@@ -13886,7 +13886,7 @@
         <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="D348" t="s">
         <v>523</v>
@@ -13910,9 +13910,6 @@
     <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>10</v>
-      </c>
-      <c r="B349" t="s">
-        <v>114</v>
       </c>
       <c r="D349" t="s">
         <v>522</v>
@@ -13938,7 +13935,7 @@
         <v>11</v>
       </c>
       <c r="B350" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="D350" t="s">
         <v>523</v>
@@ -13966,9 +13963,6 @@
       <c r="A351" t="s">
         <v>10</v>
       </c>
-      <c r="B351" t="s">
-        <v>114</v>
-      </c>
       <c r="D351" t="s">
         <v>522</v>
       </c>
@@ -13992,8 +13986,8 @@
       <c r="A352" t="s">
         <v>10</v>
       </c>
-      <c r="C352" t="s">
-        <v>420</v>
+      <c r="B352" t="s">
+        <v>328</v>
       </c>
       <c r="D352" t="s">
         <v>522</v>
@@ -14021,8 +14015,8 @@
       <c r="A353" t="s">
         <v>10</v>
       </c>
-      <c r="C353" t="s">
-        <v>421</v>
+      <c r="B353" t="s">
+        <v>329</v>
       </c>
       <c r="D353" t="s">
         <v>523</v>
@@ -14050,8 +14044,8 @@
       <c r="A354" t="s">
         <v>10</v>
       </c>
-      <c r="C354" t="s">
-        <v>422</v>
+      <c r="B354" t="s">
+        <v>330</v>
       </c>
       <c r="D354" t="s">
         <v>523</v>
@@ -14079,8 +14073,8 @@
       <c r="A355" t="s">
         <v>10</v>
       </c>
-      <c r="C355" t="s">
-        <v>423</v>
+      <c r="B355" t="s">
+        <v>331</v>
       </c>
       <c r="D355" t="s">
         <v>523</v>
@@ -14108,8 +14102,8 @@
       <c r="A356" t="s">
         <v>10</v>
       </c>
-      <c r="C356" t="s">
-        <v>424</v>
+      <c r="B356" t="s">
+        <v>332</v>
       </c>
       <c r="D356" t="s">
         <v>523</v>
@@ -14137,8 +14131,8 @@
       <c r="A357" t="s">
         <v>10</v>
       </c>
-      <c r="C357" t="s">
-        <v>425</v>
+      <c r="B357" t="s">
+        <v>333</v>
       </c>
       <c r="D357" t="s">
         <v>522</v>
@@ -14166,8 +14160,8 @@
       <c r="A358" t="s">
         <v>10</v>
       </c>
-      <c r="C358" t="s">
-        <v>426</v>
+      <c r="B358" t="s">
+        <v>334</v>
       </c>
       <c r="D358" t="s">
         <v>522</v>
@@ -14195,8 +14189,8 @@
       <c r="A359" t="s">
         <v>10</v>
       </c>
-      <c r="C359" t="s">
-        <v>427</v>
+      <c r="B359" t="s">
+        <v>335</v>
       </c>
       <c r="D359" t="s">
         <v>522</v>
@@ -14224,8 +14218,8 @@
       <c r="A360" t="s">
         <v>10</v>
       </c>
-      <c r="C360" t="s">
-        <v>428</v>
+      <c r="B360" t="s">
+        <v>336</v>
       </c>
       <c r="D360" t="s">
         <v>522</v>
@@ -14253,8 +14247,8 @@
       <c r="A361" t="s">
         <v>10</v>
       </c>
-      <c r="C361" t="s">
-        <v>429</v>
+      <c r="B361" t="s">
+        <v>337</v>
       </c>
       <c r="D361" t="s">
         <v>523</v>
@@ -14282,8 +14276,8 @@
       <c r="A362" t="s">
         <v>10</v>
       </c>
-      <c r="C362" t="s">
-        <v>430</v>
+      <c r="B362" t="s">
+        <v>338</v>
       </c>
       <c r="D362" t="s">
         <v>522</v>
@@ -14311,8 +14305,8 @@
       <c r="A363" t="s">
         <v>10</v>
       </c>
-      <c r="C363" t="s">
-        <v>431</v>
+      <c r="B363" t="s">
+        <v>339</v>
       </c>
       <c r="D363" t="s">
         <v>522</v>
@@ -14340,8 +14334,8 @@
       <c r="A364" t="s">
         <v>10</v>
       </c>
-      <c r="C364" t="s">
-        <v>432</v>
+      <c r="B364" t="s">
+        <v>340</v>
       </c>
       <c r="D364" t="s">
         <v>522</v>
@@ -14369,8 +14363,8 @@
       <c r="A365" t="s">
         <v>10</v>
       </c>
-      <c r="C365" t="s">
-        <v>433</v>
+      <c r="B365" t="s">
+        <v>341</v>
       </c>
       <c r="D365" t="s">
         <v>523</v>
@@ -14398,8 +14392,8 @@
       <c r="A366" t="s">
         <v>10</v>
       </c>
-      <c r="C366" t="s">
-        <v>434</v>
+      <c r="B366" t="s">
+        <v>342</v>
       </c>
       <c r="D366" t="s">
         <v>522</v>
@@ -14427,8 +14421,8 @@
       <c r="A367" t="s">
         <v>10</v>
       </c>
-      <c r="C367" t="s">
-        <v>435</v>
+      <c r="B367" t="s">
+        <v>343</v>
       </c>
       <c r="D367" t="s">
         <v>522</v>
@@ -14456,8 +14450,8 @@
       <c r="A368" t="s">
         <v>10</v>
       </c>
-      <c r="C368" t="s">
-        <v>436</v>
+      <c r="B368" t="s">
+        <v>344</v>
       </c>
       <c r="D368" t="s">
         <v>523</v>
@@ -14485,8 +14479,8 @@
       <c r="A369" t="s">
         <v>10</v>
       </c>
-      <c r="C369" t="s">
-        <v>437</v>
+      <c r="B369" t="s">
+        <v>345</v>
       </c>
       <c r="D369" t="s">
         <v>522</v>
@@ -14514,8 +14508,8 @@
       <c r="A370" t="s">
         <v>10</v>
       </c>
-      <c r="C370" t="s">
-        <v>438</v>
+      <c r="B370" t="s">
+        <v>346</v>
       </c>
       <c r="D370" t="s">
         <v>522</v>
@@ -14543,8 +14537,8 @@
       <c r="A371" t="s">
         <v>10</v>
       </c>
-      <c r="C371" t="s">
-        <v>439</v>
+      <c r="B371" t="s">
+        <v>347</v>
       </c>
       <c r="D371" t="s">
         <v>523</v>
@@ -14572,8 +14566,8 @@
       <c r="A372" t="s">
         <v>10</v>
       </c>
-      <c r="C372" t="s">
-        <v>440</v>
+      <c r="B372" t="s">
+        <v>348</v>
       </c>
       <c r="D372" t="s">
         <v>523</v>
@@ -14601,8 +14595,8 @@
       <c r="A373" t="s">
         <v>10</v>
       </c>
-      <c r="C373" t="s">
-        <v>441</v>
+      <c r="B373" t="s">
+        <v>349</v>
       </c>
       <c r="D373" t="s">
         <v>522</v>
@@ -14630,8 +14624,8 @@
       <c r="A374" t="s">
         <v>10</v>
       </c>
-      <c r="C374" t="s">
-        <v>442</v>
+      <c r="B374" t="s">
+        <v>350</v>
       </c>
       <c r="D374" t="s">
         <v>522</v>
@@ -14659,8 +14653,8 @@
       <c r="A375" t="s">
         <v>10</v>
       </c>
-      <c r="C375" t="s">
-        <v>443</v>
+      <c r="B375" t="s">
+        <v>351</v>
       </c>
       <c r="D375" t="s">
         <v>522</v>
@@ -14688,8 +14682,8 @@
       <c r="A376" t="s">
         <v>10</v>
       </c>
-      <c r="C376" t="s">
-        <v>444</v>
+      <c r="B376" t="s">
+        <v>352</v>
       </c>
       <c r="D376" t="s">
         <v>522</v>
@@ -14717,8 +14711,8 @@
       <c r="A377" t="s">
         <v>10</v>
       </c>
-      <c r="C377" t="s">
-        <v>445</v>
+      <c r="B377" t="s">
+        <v>353</v>
       </c>
       <c r="D377" t="s">
         <v>523</v>
@@ -14746,8 +14740,8 @@
       <c r="A378" t="s">
         <v>10</v>
       </c>
-      <c r="C378" t="s">
-        <v>446</v>
+      <c r="B378" t="s">
+        <v>354</v>
       </c>
       <c r="D378" t="s">
         <v>522</v>
@@ -14775,8 +14769,8 @@
       <c r="A379" t="s">
         <v>10</v>
       </c>
-      <c r="C379" t="s">
-        <v>447</v>
+      <c r="B379" t="s">
+        <v>355</v>
       </c>
       <c r="D379" t="s">
         <v>522</v>
@@ -14804,8 +14798,8 @@
       <c r="A380" t="s">
         <v>10</v>
       </c>
-      <c r="C380" t="s">
-        <v>448</v>
+      <c r="B380" t="s">
+        <v>356</v>
       </c>
       <c r="D380" t="s">
         <v>522</v>
@@ -14833,8 +14827,8 @@
       <c r="A381" t="s">
         <v>10</v>
       </c>
-      <c r="C381" t="s">
-        <v>449</v>
+      <c r="B381" t="s">
+        <v>357</v>
       </c>
       <c r="D381" t="s">
         <v>522</v>
@@ -14862,8 +14856,8 @@
       <c r="A382" t="s">
         <v>10</v>
       </c>
-      <c r="C382" t="s">
-        <v>450</v>
+      <c r="B382" t="s">
+        <v>358</v>
       </c>
       <c r="D382" t="s">
         <v>522</v>
@@ -14891,8 +14885,8 @@
       <c r="A383" t="s">
         <v>10</v>
       </c>
-      <c r="C383" t="s">
-        <v>451</v>
+      <c r="B383" t="s">
+        <v>359</v>
       </c>
       <c r="D383" t="s">
         <v>523</v>
@@ -14920,8 +14914,8 @@
       <c r="A384" t="s">
         <v>10</v>
       </c>
-      <c r="C384" t="s">
-        <v>452</v>
+      <c r="B384" t="s">
+        <v>360</v>
       </c>
       <c r="D384" t="s">
         <v>522</v>
@@ -14949,8 +14943,8 @@
       <c r="A385" t="s">
         <v>10</v>
       </c>
-      <c r="C385" t="s">
-        <v>453</v>
+      <c r="B385" t="s">
+        <v>361</v>
       </c>
       <c r="D385" t="s">
         <v>522</v>
@@ -14978,8 +14972,8 @@
       <c r="A386" t="s">
         <v>10</v>
       </c>
-      <c r="C386" t="s">
-        <v>454</v>
+      <c r="B386" t="s">
+        <v>362</v>
       </c>
       <c r="D386" t="s">
         <v>522</v>
@@ -15007,8 +15001,8 @@
       <c r="A387" t="s">
         <v>10</v>
       </c>
-      <c r="C387" t="s">
-        <v>455</v>
+      <c r="B387" t="s">
+        <v>363</v>
       </c>
       <c r="D387" t="s">
         <v>522</v>
@@ -15036,8 +15030,8 @@
       <c r="A388" t="s">
         <v>10</v>
       </c>
-      <c r="C388" t="s">
-        <v>456</v>
+      <c r="B388" t="s">
+        <v>364</v>
       </c>
       <c r="D388" t="s">
         <v>523</v>
@@ -15065,8 +15059,8 @@
       <c r="A389" t="s">
         <v>10</v>
       </c>
-      <c r="C389" t="s">
-        <v>457</v>
+      <c r="B389" t="s">
+        <v>365</v>
       </c>
       <c r="D389" t="s">
         <v>523</v>
@@ -15094,8 +15088,8 @@
       <c r="A390" t="s">
         <v>10</v>
       </c>
-      <c r="C390" t="s">
-        <v>458</v>
+      <c r="B390" t="s">
+        <v>366</v>
       </c>
       <c r="D390" t="s">
         <v>522</v>
@@ -15123,8 +15117,8 @@
       <c r="A391" t="s">
         <v>10</v>
       </c>
-      <c r="C391" t="s">
-        <v>459</v>
+      <c r="B391" t="s">
+        <v>367</v>
       </c>
       <c r="D391" t="s">
         <v>522</v>
@@ -15152,8 +15146,8 @@
       <c r="A392" t="s">
         <v>10</v>
       </c>
-      <c r="C392" t="s">
-        <v>460</v>
+      <c r="B392" t="s">
+        <v>368</v>
       </c>
       <c r="D392" t="s">
         <v>523</v>
@@ -15181,8 +15175,8 @@
       <c r="A393" t="s">
         <v>10</v>
       </c>
-      <c r="C393" t="s">
-        <v>461</v>
+      <c r="B393" t="s">
+        <v>369</v>
       </c>
       <c r="D393" t="s">
         <v>523</v>
@@ -15210,8 +15204,8 @@
       <c r="A394" t="s">
         <v>10</v>
       </c>
-      <c r="C394" t="s">
-        <v>462</v>
+      <c r="B394" t="s">
+        <v>370</v>
       </c>
       <c r="D394" t="s">
         <v>522</v>
@@ -15239,8 +15233,8 @@
       <c r="A395" t="s">
         <v>10</v>
       </c>
-      <c r="C395" t="s">
-        <v>463</v>
+      <c r="B395" t="s">
+        <v>371</v>
       </c>
       <c r="D395" t="s">
         <v>523</v>
@@ -15268,8 +15262,8 @@
       <c r="A396" t="s">
         <v>10</v>
       </c>
-      <c r="C396" t="s">
-        <v>464</v>
+      <c r="B396" t="s">
+        <v>372</v>
       </c>
       <c r="D396" t="s">
         <v>523</v>
@@ -15297,8 +15291,8 @@
       <c r="A397" t="s">
         <v>10</v>
       </c>
-      <c r="C397" t="s">
-        <v>465</v>
+      <c r="B397" t="s">
+        <v>373</v>
       </c>
       <c r="D397" t="s">
         <v>523</v>
@@ -15326,8 +15320,8 @@
       <c r="A398" t="s">
         <v>10</v>
       </c>
-      <c r="C398" t="s">
-        <v>466</v>
+      <c r="B398" t="s">
+        <v>374</v>
       </c>
       <c r="D398" t="s">
         <v>522</v>
@@ -15355,8 +15349,8 @@
       <c r="A399" t="s">
         <v>10</v>
       </c>
-      <c r="C399" t="s">
-        <v>467</v>
+      <c r="B399" t="s">
+        <v>375</v>
       </c>
       <c r="D399" t="s">
         <v>522</v>
@@ -15384,8 +15378,8 @@
       <c r="A400" t="s">
         <v>10</v>
       </c>
-      <c r="C400" t="s">
-        <v>468</v>
+      <c r="B400" t="s">
+        <v>376</v>
       </c>
       <c r="D400" t="s">
         <v>522</v>
@@ -15413,8 +15407,8 @@
       <c r="A401" t="s">
         <v>10</v>
       </c>
-      <c r="C401" t="s">
-        <v>469</v>
+      <c r="B401" t="s">
+        <v>377</v>
       </c>
       <c r="D401" t="s">
         <v>522</v>
@@ -15442,8 +15436,8 @@
       <c r="A402" t="s">
         <v>10</v>
       </c>
-      <c r="C402" t="s">
-        <v>470</v>
+      <c r="B402" t="s">
+        <v>378</v>
       </c>
       <c r="D402" t="s">
         <v>522</v>
@@ -15471,8 +15465,8 @@
       <c r="A403" t="s">
         <v>10</v>
       </c>
-      <c r="C403" t="s">
-        <v>471</v>
+      <c r="B403" t="s">
+        <v>379</v>
       </c>
       <c r="D403" t="s">
         <v>522</v>
@@ -15500,8 +15494,8 @@
       <c r="A404" t="s">
         <v>10</v>
       </c>
-      <c r="C404" t="s">
-        <v>472</v>
+      <c r="B404" t="s">
+        <v>380</v>
       </c>
       <c r="D404" t="s">
         <v>523</v>
@@ -15529,8 +15523,8 @@
       <c r="A405" t="s">
         <v>10</v>
       </c>
-      <c r="C405" t="s">
-        <v>473</v>
+      <c r="B405" t="s">
+        <v>381</v>
       </c>
       <c r="D405" t="s">
         <v>523</v>
@@ -15558,8 +15552,8 @@
       <c r="A406" t="s">
         <v>10</v>
       </c>
-      <c r="C406" t="s">
-        <v>474</v>
+      <c r="B406" t="s">
+        <v>382</v>
       </c>
       <c r="D406" t="s">
         <v>522</v>
@@ -15587,8 +15581,8 @@
       <c r="A407" t="s">
         <v>10</v>
       </c>
-      <c r="C407" t="s">
-        <v>475</v>
+      <c r="B407" t="s">
+        <v>383</v>
       </c>
       <c r="D407" t="s">
         <v>523</v>
@@ -15616,8 +15610,8 @@
       <c r="A408" t="s">
         <v>10</v>
       </c>
-      <c r="C408" t="s">
-        <v>476</v>
+      <c r="B408" t="s">
+        <v>384</v>
       </c>
       <c r="D408" t="s">
         <v>522</v>
@@ -15645,8 +15639,8 @@
       <c r="A409" t="s">
         <v>10</v>
       </c>
-      <c r="C409" t="s">
-        <v>477</v>
+      <c r="B409" t="s">
+        <v>385</v>
       </c>
       <c r="D409" t="s">
         <v>522</v>
@@ -15674,8 +15668,8 @@
       <c r="A410" t="s">
         <v>10</v>
       </c>
-      <c r="C410" t="s">
-        <v>478</v>
+      <c r="B410" t="s">
+        <v>386</v>
       </c>
       <c r="D410" t="s">
         <v>523</v>
@@ -15703,8 +15697,8 @@
       <c r="A411" t="s">
         <v>10</v>
       </c>
-      <c r="C411" t="s">
-        <v>479</v>
+      <c r="B411" t="s">
+        <v>387</v>
       </c>
       <c r="D411" t="s">
         <v>522</v>
@@ -15732,8 +15726,8 @@
       <c r="A412" t="s">
         <v>10</v>
       </c>
-      <c r="C412" t="s">
-        <v>480</v>
+      <c r="B412" t="s">
+        <v>388</v>
       </c>
       <c r="D412" t="s">
         <v>522</v>
@@ -15761,8 +15755,8 @@
       <c r="A413" t="s">
         <v>10</v>
       </c>
-      <c r="C413" t="s">
-        <v>481</v>
+      <c r="B413" t="s">
+        <v>389</v>
       </c>
       <c r="D413" t="s">
         <v>523</v>
@@ -15790,8 +15784,8 @@
       <c r="A414" t="s">
         <v>10</v>
       </c>
-      <c r="C414" t="s">
-        <v>482</v>
+      <c r="B414" t="s">
+        <v>390</v>
       </c>
       <c r="D414" t="s">
         <v>523</v>
@@ -15819,8 +15813,8 @@
       <c r="A415" t="s">
         <v>10</v>
       </c>
-      <c r="C415" t="s">
-        <v>483</v>
+      <c r="B415" t="s">
+        <v>391</v>
       </c>
       <c r="D415" t="s">
         <v>522</v>
@@ -15848,8 +15842,8 @@
       <c r="A416" t="s">
         <v>10</v>
       </c>
-      <c r="C416" t="s">
-        <v>484</v>
+      <c r="B416" t="s">
+        <v>392</v>
       </c>
       <c r="D416" t="s">
         <v>522</v>
@@ -15877,8 +15871,8 @@
       <c r="A417" t="s">
         <v>10</v>
       </c>
-      <c r="C417" t="s">
-        <v>394</v>
+      <c r="B417" t="s">
+        <v>393</v>
       </c>
       <c r="D417" t="s">
         <v>523</v>
@@ -15906,8 +15900,8 @@
       <c r="A418" t="s">
         <v>10</v>
       </c>
-      <c r="C418" t="s">
-        <v>485</v>
+      <c r="B418" t="s">
+        <v>394</v>
       </c>
       <c r="D418" t="s">
         <v>522</v>
@@ -15935,8 +15929,8 @@
       <c r="A419" t="s">
         <v>10</v>
       </c>
-      <c r="C419" t="s">
-        <v>486</v>
+      <c r="B419" t="s">
+        <v>395</v>
       </c>
       <c r="D419" t="s">
         <v>522</v>
@@ -15964,8 +15958,8 @@
       <c r="A420" t="s">
         <v>10</v>
       </c>
-      <c r="C420" t="s">
-        <v>487</v>
+      <c r="B420" t="s">
+        <v>396</v>
       </c>
       <c r="D420" t="s">
         <v>522</v>
@@ -15993,8 +15987,8 @@
       <c r="A421" t="s">
         <v>10</v>
       </c>
-      <c r="C421" t="s">
-        <v>488</v>
+      <c r="B421" t="s">
+        <v>397</v>
       </c>
       <c r="D421" t="s">
         <v>522</v>
@@ -16022,8 +16016,8 @@
       <c r="A422" t="s">
         <v>10</v>
       </c>
-      <c r="C422" t="s">
-        <v>489</v>
+      <c r="B422" t="s">
+        <v>398</v>
       </c>
       <c r="D422" t="s">
         <v>522</v>
@@ -16051,8 +16045,8 @@
       <c r="A423" t="s">
         <v>10</v>
       </c>
-      <c r="C423" t="s">
-        <v>383</v>
+      <c r="B423" t="s">
+        <v>399</v>
       </c>
       <c r="D423" t="s">
         <v>523</v>
@@ -16080,8 +16074,8 @@
       <c r="A424" t="s">
         <v>10</v>
       </c>
-      <c r="C424" t="s">
-        <v>490</v>
+      <c r="B424" t="s">
+        <v>400</v>
       </c>
       <c r="D424" t="s">
         <v>522</v>
@@ -16109,8 +16103,8 @@
       <c r="A425" t="s">
         <v>10</v>
       </c>
-      <c r="C425" t="s">
-        <v>491</v>
+      <c r="B425" t="s">
+        <v>401</v>
       </c>
       <c r="D425" t="s">
         <v>522</v>
@@ -16138,8 +16132,8 @@
       <c r="A426" t="s">
         <v>10</v>
       </c>
-      <c r="C426" t="s">
-        <v>410</v>
+      <c r="B426" t="s">
+        <v>402</v>
       </c>
       <c r="D426" t="s">
         <v>523</v>
@@ -16167,8 +16161,8 @@
       <c r="A427" t="s">
         <v>10</v>
       </c>
-      <c r="C427" t="s">
-        <v>492</v>
+      <c r="B427" t="s">
+        <v>403</v>
       </c>
       <c r="D427" t="s">
         <v>522</v>
@@ -16196,8 +16190,8 @@
       <c r="A428" t="s">
         <v>10</v>
       </c>
-      <c r="C428" t="s">
-        <v>493</v>
+      <c r="B428" t="s">
+        <v>404</v>
       </c>
       <c r="D428" t="s">
         <v>522</v>
@@ -16225,8 +16219,8 @@
       <c r="A429" t="s">
         <v>10</v>
       </c>
-      <c r="C429" t="s">
-        <v>494</v>
+      <c r="B429" t="s">
+        <v>405</v>
       </c>
       <c r="D429" t="s">
         <v>522</v>
@@ -16254,8 +16248,8 @@
       <c r="A430" t="s">
         <v>10</v>
       </c>
-      <c r="C430" t="s">
-        <v>495</v>
+      <c r="B430" t="s">
+        <v>406</v>
       </c>
       <c r="D430" t="s">
         <v>522</v>
@@ -16283,8 +16277,8 @@
       <c r="A431" t="s">
         <v>10</v>
       </c>
-      <c r="C431" t="s">
-        <v>496</v>
+      <c r="B431" t="s">
+        <v>407</v>
       </c>
       <c r="D431" t="s">
         <v>522</v>
@@ -16312,8 +16306,8 @@
       <c r="A432" t="s">
         <v>10</v>
       </c>
-      <c r="C432" t="s">
-        <v>497</v>
+      <c r="B432" t="s">
+        <v>408</v>
       </c>
       <c r="D432" t="s">
         <v>522</v>
@@ -16341,8 +16335,8 @@
       <c r="A433" t="s">
         <v>10</v>
       </c>
-      <c r="C433" t="s">
-        <v>498</v>
+      <c r="B433" t="s">
+        <v>409</v>
       </c>
       <c r="D433" t="s">
         <v>523</v>
@@ -16370,8 +16364,8 @@
       <c r="A434" t="s">
         <v>10</v>
       </c>
-      <c r="C434" t="s">
-        <v>499</v>
+      <c r="B434" t="s">
+        <v>410</v>
       </c>
       <c r="D434" t="s">
         <v>522</v>
@@ -16399,8 +16393,8 @@
       <c r="A435" t="s">
         <v>10</v>
       </c>
-      <c r="C435" t="s">
-        <v>500</v>
+      <c r="B435" t="s">
+        <v>411</v>
       </c>
       <c r="D435" t="s">
         <v>522</v>
@@ -16428,8 +16422,8 @@
       <c r="A436" t="s">
         <v>10</v>
       </c>
-      <c r="C436" t="s">
-        <v>501</v>
+      <c r="B436" t="s">
+        <v>412</v>
       </c>
       <c r="D436" t="s">
         <v>523</v>
@@ -16457,8 +16451,8 @@
       <c r="A437" t="s">
         <v>10</v>
       </c>
-      <c r="C437" t="s">
-        <v>502</v>
+      <c r="B437" t="s">
+        <v>413</v>
       </c>
       <c r="D437" t="s">
         <v>522</v>
@@ -16486,8 +16480,8 @@
       <c r="A438" t="s">
         <v>10</v>
       </c>
-      <c r="C438" t="s">
-        <v>503</v>
+      <c r="B438" t="s">
+        <v>414</v>
       </c>
       <c r="D438" t="s">
         <v>522</v>
@@ -16515,8 +16509,8 @@
       <c r="A439" t="s">
         <v>10</v>
       </c>
-      <c r="C439" t="s">
-        <v>504</v>
+      <c r="B439" t="s">
+        <v>415</v>
       </c>
       <c r="D439" t="s">
         <v>522</v>
@@ -16544,8 +16538,8 @@
       <c r="A440" t="s">
         <v>10</v>
       </c>
-      <c r="C440" t="s">
-        <v>505</v>
+      <c r="B440" t="s">
+        <v>416</v>
       </c>
       <c r="D440" t="s">
         <v>523</v>
@@ -16573,8 +16567,8 @@
       <c r="A441" t="s">
         <v>10</v>
       </c>
-      <c r="C441" t="s">
-        <v>506</v>
+      <c r="B441" t="s">
+        <v>417</v>
       </c>
       <c r="D441" t="s">
         <v>523</v>
@@ -16602,8 +16596,8 @@
       <c r="A442" t="s">
         <v>10</v>
       </c>
-      <c r="C442" t="s">
-        <v>507</v>
+      <c r="B442" t="s">
+        <v>418</v>
       </c>
       <c r="D442" t="s">
         <v>523</v>
@@ -16631,8 +16625,8 @@
       <c r="A443" t="s">
         <v>10</v>
       </c>
-      <c r="C443" t="s">
-        <v>508</v>
+      <c r="B443" t="s">
+        <v>419</v>
       </c>
       <c r="D443" t="s">
         <v>522</v>
@@ -16660,8 +16654,8 @@
       <c r="A444" t="s">
         <v>10</v>
       </c>
-      <c r="C444" t="s">
-        <v>509</v>
+      <c r="B444" t="s">
+        <v>420</v>
       </c>
       <c r="D444" t="s">
         <v>523</v>
@@ -16689,8 +16683,8 @@
       <c r="A445" t="s">
         <v>10</v>
       </c>
-      <c r="C445" t="s">
-        <v>510</v>
+      <c r="B445" t="s">
+        <v>421</v>
       </c>
       <c r="D445" t="s">
         <v>522</v>
@@ -16718,8 +16712,8 @@
       <c r="A446" t="s">
         <v>10</v>
       </c>
-      <c r="C446" t="s">
-        <v>511</v>
+      <c r="B446" t="s">
+        <v>422</v>
       </c>
       <c r="D446" t="s">
         <v>522</v>
@@ -16747,8 +16741,8 @@
       <c r="A447" t="s">
         <v>10</v>
       </c>
-      <c r="C447" t="s">
-        <v>512</v>
+      <c r="B447" t="s">
+        <v>423</v>
       </c>
       <c r="D447" t="s">
         <v>522</v>
@@ -16776,8 +16770,8 @@
       <c r="A448" t="s">
         <v>10</v>
       </c>
-      <c r="C448" t="s">
-        <v>513</v>
+      <c r="B448" t="s">
+        <v>424</v>
       </c>
       <c r="D448" t="s">
         <v>522</v>
@@ -16805,8 +16799,8 @@
       <c r="A449" t="s">
         <v>10</v>
       </c>
-      <c r="C449" t="s">
-        <v>514</v>
+      <c r="B449" t="s">
+        <v>425</v>
       </c>
       <c r="D449" t="s">
         <v>522</v>
@@ -16834,8 +16828,8 @@
       <c r="A450" t="s">
         <v>10</v>
       </c>
-      <c r="C450" t="s">
-        <v>515</v>
+      <c r="B450" t="s">
+        <v>426</v>
       </c>
       <c r="D450" t="s">
         <v>522</v>
@@ -16863,8 +16857,8 @@
       <c r="A451" t="s">
         <v>10</v>
       </c>
-      <c r="C451" t="s">
-        <v>516</v>
+      <c r="B451" t="s">
+        <v>427</v>
       </c>
       <c r="D451" t="s">
         <v>522</v>
@@ -16892,8 +16886,8 @@
       <c r="A452" t="s">
         <v>10</v>
       </c>
-      <c r="C452" t="s">
-        <v>517</v>
+      <c r="B452" t="s">
+        <v>428</v>
       </c>
       <c r="D452" t="s">
         <v>522</v>
@@ -16921,8 +16915,8 @@
       <c r="A453" t="s">
         <v>10</v>
       </c>
-      <c r="C453" t="s">
-        <v>518</v>
+      <c r="B453" t="s">
+        <v>429</v>
       </c>
       <c r="D453" t="s">
         <v>522</v>
@@ -16950,8 +16944,8 @@
       <c r="A454" t="s">
         <v>10</v>
       </c>
-      <c r="C454" t="s">
-        <v>519</v>
+      <c r="B454" t="s">
+        <v>430</v>
       </c>
       <c r="D454" t="s">
         <v>522</v>
@@ -16979,8 +16973,8 @@
       <c r="A455" t="s">
         <v>10</v>
       </c>
-      <c r="C455" t="s">
-        <v>520</v>
+      <c r="B455" t="s">
+        <v>431</v>
       </c>
       <c r="D455" t="s">
         <v>522</v>
@@ -17008,8 +17002,8 @@
       <c r="A456" t="s">
         <v>10</v>
       </c>
-      <c r="C456" t="s">
-        <v>521</v>
+      <c r="B456" t="s">
+        <v>432</v>
       </c>
       <c r="D456" t="s">
         <v>523</v>
